--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aronf\Desktop\US-College-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17810125-F2AC-496F-82B4-1A70384699C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{493C5A0B-9BF9-4D1A-B2D9-F77C826A14D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="2265" windowWidth="28800" windowHeight="15435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="154">
   <si>
     <t>University Name</t>
   </si>
@@ -85,400 +85,403 @@
     <t>2022 QS World Ranking</t>
   </si>
   <si>
+    <t>2023 THE World Ranking</t>
+  </si>
+  <si>
+    <t>2022 RUR World Reputation Ranking</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>Massachusetts Institute of Technology</t>
   </si>
   <si>
-    <t>A+</t>
-  </si>
-  <si>
     <t>B-</t>
   </si>
   <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Stanford University</t>
   </si>
   <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>Harvard University</t>
+    <t>University of California Berkeley</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>Yale University</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>University of Chicago</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology</t>
+  </si>
+  <si>
+    <t>New York University</t>
+  </si>
+  <si>
+    <t>University of Wisconsin at Madison</t>
+  </si>
+  <si>
+    <t>University of California San Diego</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>Pennsylvania State University</t>
+  </si>
+  <si>
+    <t>Purdue University</t>
+  </si>
+  <si>
+    <t>University of North Carolina at Chapel Hill</t>
+  </si>
+  <si>
+    <t>University of California Davis</t>
+  </si>
+  <si>
+    <t>Ohio State University</t>
+  </si>
+  <si>
+    <t>Washington University in St. Louis</t>
+  </si>
+  <si>
+    <t>University of California Santa Barbara</t>
+  </si>
+  <si>
+    <t>No Ranking</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>University of Southern California</t>
+  </si>
+  <si>
+    <t>University of Florida</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>Indiana University</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University</t>
+  </si>
+  <si>
+    <t>Brown University</t>
+  </si>
+  <si>
+    <t>Emory University</t>
+  </si>
+  <si>
+    <t>University of Arizona</t>
+  </si>
+  <si>
+    <t>Vanderbilt University</t>
+  </si>
+  <si>
+    <t>University of California Irvine</t>
+  </si>
+  <si>
+    <t>North Carolina State University</t>
+  </si>
+  <si>
+    <t>University of Iowa</t>
+  </si>
+  <si>
+    <t>Rice University</t>
+  </si>
+  <si>
+    <t>Colorado School of Mines</t>
+  </si>
+  <si>
+    <t>Georgetown University</t>
+  </si>
+  <si>
+    <t>University of California Riverside</t>
+  </si>
+  <si>
+    <t>University of Notre Dame</t>
+  </si>
+  <si>
+    <t>Case Western Reserve University</t>
+  </si>
+  <si>
+    <t>Tufts University</t>
+  </si>
+  <si>
+    <t>George Washington University</t>
+  </si>
+  <si>
+    <t>Syracuse University</t>
+  </si>
+  <si>
+    <t>University of California Santa Cruz</t>
+  </si>
+  <si>
+    <t>University of Rochester</t>
+  </si>
+  <si>
+    <t>Dartmouth College</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>University of Miami</t>
+  </si>
+  <si>
+    <t>University of Delaware</t>
+  </si>
+  <si>
+    <t>University of Kansas</t>
+  </si>
+  <si>
+    <t>University of Oregon</t>
+  </si>
+  <si>
+    <t>University of Central Florida</t>
+  </si>
+  <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
+    <t>University of Texas Dallas</t>
+  </si>
+  <si>
+    <t>University of Missouri</t>
+  </si>
+  <si>
+    <t>University of Connecticut</t>
+  </si>
+  <si>
+    <t>Auburn University</t>
+  </si>
+  <si>
+    <t>University of Southern Florida</t>
+  </si>
+  <si>
+    <t>Drexel University</t>
+  </si>
+  <si>
+    <t>Tulane University</t>
+  </si>
+  <si>
+    <t>University of South Carolina</t>
+  </si>
+  <si>
+    <t>University of Oklahoma</t>
+  </si>
+  <si>
+    <t>Rensselaer Polytechnic Institute</t>
+  </si>
+  <si>
+    <t>Wake Forest University</t>
+  </si>
+  <si>
+    <t>University of Nebraska</t>
+  </si>
+  <si>
+    <t>Lehigh University</t>
+  </si>
+  <si>
+    <t>San Diego State University</t>
+  </si>
+  <si>
+    <t>American University</t>
+  </si>
+  <si>
+    <t>Worcester Polytechnic Institute</t>
+  </si>
+  <si>
+    <t>University of Vermont</t>
+  </si>
+  <si>
+    <t>Brandeis University</t>
+  </si>
+  <si>
+    <t>D-</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>Texas Christian University</t>
+  </si>
+  <si>
+    <t>Marquette University</t>
+  </si>
+  <si>
+    <t>Stevens Institute of Technology</t>
+  </si>
+  <si>
+    <t>Baylor University</t>
+  </si>
+  <si>
+    <t>Binghamton University</t>
+  </si>
+  <si>
+    <t>Brigham Young University</t>
   </si>
   <si>
     <t>California Institute of Technology</t>
   </si>
   <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>University of Chicago</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>University of Pennsylvania</t>
-  </si>
-  <si>
-    <t>Yale University</t>
-  </si>
-  <si>
-    <t>Columbia University</t>
-  </si>
-  <si>
-    <t>Princeton University</t>
-  </si>
-  <si>
-    <t>Cornell University</t>
-  </si>
-  <si>
-    <t>University of Michigan</t>
-  </si>
-  <si>
-    <t>Johns Hopkins University</t>
-  </si>
-  <si>
-    <t>University of California Berkeley</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>C-</t>
+    <t>Catholic University of America</t>
+  </si>
+  <si>
+    <t>Clark University</t>
+  </si>
+  <si>
+    <t>Clemson University</t>
+  </si>
+  <si>
+    <t>Duke University</t>
+  </si>
+  <si>
+    <t>Howard University</t>
+  </si>
+  <si>
+    <t>Loyola University of Chicago</t>
+  </si>
+  <si>
+    <t>Miami University of Ohio</t>
+  </si>
+  <si>
+    <t>Ohio University</t>
+  </si>
+  <si>
+    <t>Pacific University</t>
+  </si>
+  <si>
+    <t>Pepperdine University</t>
+  </si>
+  <si>
+    <t>Rochester Institute of Technology</t>
+  </si>
+  <si>
+    <t>Rutgers University</t>
+  </si>
+  <si>
+    <t>Saint Louis University</t>
+  </si>
+  <si>
+    <t>Southern Methodist University</t>
+  </si>
+  <si>
+    <t>Stony Brook University</t>
   </si>
   <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>New York University</t>
-  </si>
-  <si>
-    <t>University of California San Diego</t>
-  </si>
-  <si>
-    <t>Duke University</t>
-  </si>
-  <si>
-    <t>Carnegie Mellon University</t>
+    <t>University at Buffalo</t>
+  </si>
+  <si>
+    <t>University of Alabama</t>
+  </si>
+  <si>
+    <t>University of Cincinnati</t>
+  </si>
+  <si>
+    <t>University of Colorado</t>
+  </si>
+  <si>
+    <t>University of Dayton</t>
+  </si>
+  <si>
+    <t>University of Denver</t>
+  </si>
+  <si>
+    <t>University of Illinois</t>
+  </si>
+  <si>
+    <t>University of Kentucky</t>
+  </si>
+  <si>
+    <t>University of Maryland</t>
+  </si>
+  <si>
+    <t>University of Massachusetts Amherst</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>University of Mississippi</t>
+  </si>
+  <si>
+    <t>University of New Hampshire</t>
+  </si>
+  <si>
+    <t>University of Tennessee</t>
   </si>
   <si>
     <t>University of Texas Austin</t>
   </si>
   <si>
-    <t>University of Wisconsin at Madison</t>
-  </si>
-  <si>
-    <t>University of Illinois</t>
-  </si>
-  <si>
-    <t>Georgia Institute of Technology</t>
-  </si>
-  <si>
-    <t>Rice University</t>
-  </si>
-  <si>
-    <t>Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>University of North Carolina at Chapel Hill</t>
-  </si>
-  <si>
-    <t>Washington University in St. Louis</t>
-  </si>
-  <si>
-    <t>University of Southern California</t>
-  </si>
-  <si>
-    <t>Purdue University</t>
-  </si>
-  <si>
-    <t>Ohio State University</t>
-  </si>
-  <si>
-    <t>University of California Davis</t>
-  </si>
-  <si>
-    <t>University of California Santa Barbara</t>
-  </si>
-  <si>
-    <t>University of Rochester</t>
-  </si>
-  <si>
-    <t>University of Maryland</t>
-  </si>
-  <si>
-    <t>Emory University</t>
-  </si>
-  <si>
-    <t>Case Western Reserve University</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M University</t>
-  </si>
-  <si>
-    <t>University of Florida</t>
-  </si>
-  <si>
-    <t>University of Minnesota</t>
-  </si>
-  <si>
-    <t>Dartmouth College</t>
-  </si>
-  <si>
-    <t>Vanderbilt University</t>
-  </si>
-  <si>
-    <t>University of Notre Dame</t>
+    <t>University of Tulsa</t>
   </si>
   <si>
     <t>University of Virginia</t>
   </si>
   <si>
-    <t>University of California Irvine</t>
-  </si>
-  <si>
-    <t>University of Massachusetts Amherst</t>
-  </si>
-  <si>
-    <t>Georgetown University</t>
-  </si>
-  <si>
-    <t>University of Colorado</t>
+    <t>Villanova University</t>
+  </si>
+  <si>
+    <t>William and Mary University</t>
   </si>
   <si>
     <t>Yeshiva University</t>
-  </si>
-  <si>
-    <t>Rutgers University</t>
-  </si>
-  <si>
-    <t>University of Arizona</t>
-  </si>
-  <si>
-    <t>Tufts University</t>
-  </si>
-  <si>
-    <t>North Carolina State University</t>
-  </si>
-  <si>
-    <t>Indiana University</t>
-  </si>
-  <si>
-    <t>University of Miami</t>
-  </si>
-  <si>
-    <t>Northeastern University</t>
-  </si>
-  <si>
-    <t>Northwestern University</t>
-  </si>
-  <si>
-    <t>University of California Santa Cruz</t>
-  </si>
-  <si>
-    <t>George Washington University</t>
-  </si>
-  <si>
-    <t>University of Connecticut</t>
-  </si>
-  <si>
-    <t>Stony Brook University</t>
-  </si>
-  <si>
-    <t>D+</t>
-  </si>
-  <si>
-    <t>University of Kansas</t>
-  </si>
-  <si>
-    <t>University at Buffalo</t>
-  </si>
-  <si>
-    <t>University of California Riverside</t>
-  </si>
-  <si>
-    <t>Wake Forest University</t>
-  </si>
-  <si>
-    <t>Rensselaer Polytechnic Institute</t>
-  </si>
-  <si>
-    <t>Tulane University</t>
-  </si>
-  <si>
-    <t>Brown University</t>
-  </si>
-  <si>
-    <t>Brandeis University</t>
-  </si>
-  <si>
-    <t>D-</t>
-  </si>
-  <si>
-    <t>University of Iowa</t>
-  </si>
-  <si>
-    <t>Colorado School of Mines</t>
-  </si>
-  <si>
-    <t>University of Missouri</t>
-  </si>
-  <si>
-    <t>University of Texas Dallas</t>
-  </si>
-  <si>
-    <t>Boston University</t>
-  </si>
-  <si>
-    <t>Boston College</t>
-  </si>
-  <si>
-    <t>Lehigh University</t>
-  </si>
-  <si>
-    <t>University of Delaware</t>
-  </si>
-  <si>
-    <t>University of Tennessee</t>
-  </si>
-  <si>
-    <t>University of Nebraska</t>
-  </si>
-  <si>
-    <t>University of Southern Florida</t>
-  </si>
-  <si>
-    <t>University of Cincinnati</t>
-  </si>
-  <si>
-    <t>University of South Carolina</t>
-  </si>
-  <si>
-    <t>American University</t>
-  </si>
-  <si>
-    <t>Drexel University</t>
-  </si>
-  <si>
-    <t>Howard University</t>
-  </si>
-  <si>
-    <t>Syracuse University</t>
-  </si>
-  <si>
-    <t>University of Kentucky</t>
-  </si>
-  <si>
-    <t>University of Oklahoma</t>
-  </si>
-  <si>
-    <t>University of Oregon</t>
-  </si>
-  <si>
-    <t>University of Vermont</t>
-  </si>
-  <si>
-    <t>William and Mary University</t>
-  </si>
-  <si>
-    <t>Stevens Institute of Technology</t>
-  </si>
-  <si>
-    <t>Clark University</t>
-  </si>
-  <si>
-    <t>University of Central Florida</t>
-  </si>
-  <si>
-    <t>University of Denver</t>
-  </si>
-  <si>
-    <t>Worcester Polytechnic Institute</t>
-  </si>
-  <si>
-    <t>Auburn University</t>
-  </si>
-  <si>
-    <t>Binghamton University</t>
-  </si>
-  <si>
-    <t>Clemson University</t>
-  </si>
-  <si>
-    <t>Loyola University of Chicago</t>
-  </si>
-  <si>
-    <t>Southern Methodist University</t>
-  </si>
-  <si>
-    <t>University of Alabama</t>
-  </si>
-  <si>
-    <t>University of Mississippi</t>
-  </si>
-  <si>
-    <t>University of New Hampshire</t>
-  </si>
-  <si>
-    <t>University of Tulsa</t>
-  </si>
-  <si>
-    <t>Baylor University</t>
-  </si>
-  <si>
-    <t>Brigham Young University</t>
-  </si>
-  <si>
-    <t>Marquette University</t>
-  </si>
-  <si>
-    <t>Miami University of Ohio</t>
-  </si>
-  <si>
-    <t>Ohio University</t>
-  </si>
-  <si>
-    <t>Pacific University</t>
-  </si>
-  <si>
-    <t>Rochester Institute of Technology</t>
-  </si>
-  <si>
-    <t>San Diego State University</t>
-  </si>
-  <si>
-    <t>Catholic University of America</t>
-  </si>
-  <si>
-    <t>Pepperdine University</t>
-  </si>
-  <si>
-    <t>Saint Louis University</t>
-  </si>
-  <si>
-    <t>Texas Christian University</t>
-  </si>
-  <si>
-    <t>University of Dayton</t>
-  </si>
-  <si>
-    <t>Villanova University</t>
-  </si>
-  <si>
-    <t>2023 THE World Ranking</t>
-  </si>
-  <si>
-    <t>No Ranking</t>
   </si>
 </sst>
 </file>
@@ -1319,18 +1322,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:W119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="S113" sqref="S113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1395,12 +1399,15 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -1409,43 +1416,43 @@
         <v>1360</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2">
         <v>651</v>
@@ -1462,10 +1469,13 @@
       <c r="V2">
         <v>601</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>71</v>
@@ -1474,43 +1484,43 @@
         <v>1260</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R3">
         <v>801</v>
@@ -1527,10 +1537,13 @@
       <c r="V3">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>57</v>
@@ -1539,43 +1552,43 @@
         <v>1255</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4">
         <v>1001</v>
@@ -1592,10 +1605,13 @@
       <c r="V4">
         <v>601</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>44</v>
@@ -1604,43 +1620,43 @@
         <v>1390</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R5">
         <v>801</v>
@@ -1657,10 +1673,13 @@
       <c r="V5">
         <v>601</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>19</v>
@@ -1669,43 +1688,43 @@
         <v>1475</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R6">
         <v>494</v>
@@ -1722,10 +1741,13 @@
       <c r="V6">
         <v>251</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -1734,43 +1756,43 @@
         <v>1440</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -1790,10 +1812,13 @@
       <c r="V7">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B8">
         <v>39</v>
@@ -1802,43 +1827,43 @@
         <v>1450</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -1858,10 +1883,13 @@
       <c r="V8">
         <v>301</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>59</v>
@@ -1870,43 +1898,43 @@
         <v>1330</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R9">
         <v>1001</v>
@@ -1921,12 +1949,15 @@
         <v>1001</v>
       </c>
       <c r="V9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1935,43 +1966,43 @@
         <v>1515</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -1991,10 +2022,13 @@
       <c r="V10">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2003,43 +2037,43 @@
         <v>1555</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q11">
         <v>76</v>
@@ -2059,10 +2093,13 @@
       <c r="V11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>14</v>
@@ -2071,43 +2108,43 @@
         <v>1520</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q12">
         <v>20</v>
@@ -2127,10 +2164,13 @@
       <c r="V12">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -2139,43 +2179,43 @@
         <v>1470</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q13">
         <v>18</v>
@@ -2195,10 +2235,13 @@
       <c r="V13">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>86</v>
@@ -2207,43 +2250,43 @@
         <v>1255</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R14">
         <v>3000</v>
@@ -2258,12 +2301,15 @@
         <v>3000</v>
       </c>
       <c r="V14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B15">
         <v>48</v>
@@ -2272,43 +2318,43 @@
         <v>1310</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R15">
         <v>751</v>
@@ -2325,10 +2371,13 @@
       <c r="V15">
         <v>1001</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <v>49</v>
@@ -2337,43 +2386,43 @@
         <v>1320</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R16">
         <v>801</v>
@@ -2390,10 +2439,13 @@
       <c r="V16">
         <v>801</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>57</v>
@@ -2402,43 +2454,43 @@
         <v>1390</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R17">
         <v>461</v>
@@ -2455,10 +2507,13 @@
       <c r="V17">
         <v>401</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -2467,43 +2522,43 @@
         <v>1515</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q18">
         <v>96</v>
@@ -2523,10 +2578,13 @@
       <c r="V18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -2535,43 +2593,43 @@
         <v>1505</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q19">
         <v>61</v>
@@ -2591,10 +2649,13 @@
       <c r="V19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -2603,43 +2664,43 @@
         <v>1500</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R20">
         <v>191</v>
@@ -2656,10 +2717,13 @@
       <c r="V20">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>83</v>
@@ -2668,43 +2732,43 @@
         <v>1310</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R21">
         <v>651</v>
@@ -2721,10 +2785,13 @@
       <c r="V21">
         <v>301</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2733,43 +2800,43 @@
         <v>1525</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q22">
         <v>15</v>
@@ -2789,10 +2856,13 @@
       <c r="V22">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -2801,43 +2871,43 @@
         <v>1480</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R23">
         <v>160</v>
@@ -2854,10 +2924,13 @@
       <c r="V23">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B24">
         <v>50</v>
@@ -2866,43 +2939,43 @@
         <v>1400</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R24">
         <v>355</v>
@@ -2919,10 +2992,13 @@
       <c r="V24">
         <v>201</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -2931,43 +3007,43 @@
         <v>1480</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R25">
         <v>248</v>
@@ -2984,10 +3060,13 @@
       <c r="V25">
         <v>136</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>18</v>
@@ -2996,43 +3075,43 @@
         <v>1450</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R26">
         <v>88</v>
@@ -3049,10 +3128,13 @@
       <c r="V26">
         <v>1001</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -3061,43 +3143,43 @@
         <v>1530</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q27">
         <v>161</v>
@@ -3117,10 +3199,13 @@
       <c r="V27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B28">
         <v>35</v>
@@ -3129,43 +3214,43 @@
         <v>1185</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R28">
         <v>651</v>
@@ -3182,10 +3267,13 @@
       <c r="V28">
         <v>351</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>85</v>
@@ -3194,43 +3282,43 @@
         <v>1270</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -3250,10 +3338,13 @@
       <c r="V29">
         <v>170</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -3262,43 +3353,43 @@
         <v>1540</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q30">
         <v>39</v>
@@ -3318,10 +3409,13 @@
       <c r="V30">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B31">
         <v>46</v>
@@ -3330,43 +3424,43 @@
         <v>1407</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R31">
         <v>531</v>
@@ -3383,10 +3477,13 @@
       <c r="V31">
         <v>601</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B32">
         <v>77</v>
@@ -3395,43 +3492,43 @@
         <v>1260</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R32">
         <v>801</v>
@@ -3446,12 +3543,15 @@
         <v>801</v>
       </c>
       <c r="V32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B33">
         <v>86</v>
@@ -3460,43 +3560,43 @@
         <v>1270</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R33">
         <v>1001</v>
@@ -3513,10 +3613,13 @@
       <c r="V33">
         <v>801</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -3525,43 +3628,43 @@
         <v>1545</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q34">
         <v>97</v>
@@ -3581,10 +3684,13 @@
       <c r="V34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B35">
         <v>89</v>
@@ -3593,43 +3699,43 @@
         <v>1265</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R35">
         <v>1001</v>
@@ -3644,12 +3750,15 @@
         <v>1001</v>
       </c>
       <c r="V35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W35">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>13</v>
@@ -3658,43 +3767,43 @@
         <v>1510</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q36">
         <v>38</v>
@@ -3714,10 +3823,13 @@
       <c r="V36">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>47</v>
@@ -3726,43 +3838,43 @@
         <v>1355</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R37">
         <v>300</v>
@@ -3779,10 +3891,13 @@
       <c r="V37">
         <v>351</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B38">
         <v>18</v>
@@ -3791,43 +3906,43 @@
         <v>1490</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R38">
         <v>342</v>
@@ -3844,10 +3959,13 @@
       <c r="V38">
         <v>168</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -3856,43 +3974,43 @@
         <v>1510</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q39">
         <v>22</v>
@@ -3912,10 +4030,13 @@
       <c r="V39">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>57</v>
@@ -3924,43 +4045,43 @@
         <v>1345</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N40" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="O40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R40">
         <v>120</v>
@@ -3977,10 +4098,13 @@
       <c r="V40">
         <v>112</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <v>89</v>
@@ -3989,43 +4113,43 @@
         <v>1180</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R41">
         <v>1001</v>
@@ -4042,10 +4166,13 @@
       <c r="V41">
         <v>801</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B42">
         <v>79</v>
@@ -4054,43 +4181,43 @@
         <v>1250</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O42" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R42">
         <v>1001</v>
@@ -4105,12 +4232,15 @@
         <v>1001</v>
       </c>
       <c r="V42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>58</v>
@@ -4119,43 +4249,43 @@
         <v>1300</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R43">
         <v>96</v>
@@ -4172,10 +4302,13 @@
       <c r="V43">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B44">
         <v>53</v>
@@ -4184,43 +4317,43 @@
         <v>1350</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L44" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R44">
         <v>3000</v>
@@ -4235,12 +4368,15 @@
         <v>3000</v>
       </c>
       <c r="V44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -4249,43 +4385,43 @@
         <v>1515</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q45">
         <v>69</v>
@@ -4305,10 +4441,13 @@
       <c r="V45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>69</v>
@@ -4317,43 +4456,43 @@
         <v>1310</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J46" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -4373,10 +4512,13 @@
       <c r="V46">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>53</v>
@@ -4385,43 +4527,43 @@
         <v>1440</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N47" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O47" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R47">
         <v>431</v>
@@ -4438,10 +4580,13 @@
       <c r="V47">
         <v>601</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B48">
         <v>9</v>
@@ -4450,43 +4595,43 @@
         <v>1530</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R48">
         <v>94</v>
@@ -4503,10 +4648,13 @@
       <c r="V48">
         <v>147</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B49">
         <v>71</v>
@@ -4515,43 +4663,43 @@
         <v>1360</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R49">
         <v>1001</v>
@@ -4568,10 +4716,13 @@
       <c r="V49">
         <v>1001</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="B50">
         <v>68</v>
@@ -4580,43 +4731,43 @@
         <v>1355</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N50" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -4636,10 +4787,13 @@
       <c r="V50">
         <v>201</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B51">
         <v>70</v>
@@ -4648,43 +4802,43 @@
         <v>1265</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I51" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R51">
         <v>3000</v>
@@ -4701,10 +4855,13 @@
       <c r="V51">
         <v>301</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B52">
         <v>38</v>
@@ -4713,43 +4870,43 @@
         <v>1225</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M52" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N52" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R52">
         <v>1001</v>
@@ -4766,10 +4923,13 @@
       <c r="V52">
         <v>601</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W52">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -4778,43 +4938,43 @@
         <v>1425</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N53" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R53">
         <v>801</v>
@@ -4829,12 +4989,15 @@
         <v>801</v>
       </c>
       <c r="V53" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -4843,43 +5006,43 @@
         <v>1520</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N54" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q54">
         <v>84</v>
@@ -4899,10 +5062,13 @@
       <c r="V54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -4911,43 +5077,43 @@
         <v>1440</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N55" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R55">
         <v>701</v>
@@ -4964,10 +5130,13 @@
       <c r="V55">
         <v>501</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="B56">
         <v>48</v>
@@ -4976,43 +5145,43 @@
         <v>1390</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L56" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O56" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R56">
         <v>378</v>
@@ -5029,10 +5198,13 @@
       <c r="V56">
         <v>301</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>59</v>
@@ -5041,43 +5213,43 @@
         <v>1310</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R57">
         <v>651</v>
@@ -5094,10 +5266,13 @@
       <c r="V57">
         <v>401</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>64</v>
@@ -5106,43 +5281,43 @@
         <v>1260</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -5162,10 +5337,13 @@
       <c r="V58">
         <v>181</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B59">
         <v>54</v>
@@ -5174,43 +5352,43 @@
         <v>1240</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R59">
         <v>3000</v>
@@ -5225,12 +5403,15 @@
         <v>3000</v>
       </c>
       <c r="V59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W59">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B60">
         <v>11</v>
@@ -5239,43 +5420,43 @@
         <v>1495</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I60" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L60" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -5295,8 +5476,11 @@
       <c r="V60">
         <v>151</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -5307,43 +5491,43 @@
         <v>1435</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I61" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N61" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R61">
         <v>436</v>
@@ -5360,10 +5544,13 @@
       <c r="V61">
         <v>351</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -5372,43 +5559,43 @@
         <v>1405</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q62">
         <v>25</v>
@@ -5428,10 +5615,13 @@
       <c r="V62">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B63">
         <v>70</v>
@@ -5440,43 +5630,43 @@
         <v>1270</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I63" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J63" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N63" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>388</v>
@@ -5493,10 +5683,13 @@
       <c r="V63">
         <v>301</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W63">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B64">
         <v>79</v>
@@ -5505,43 +5698,43 @@
         <v>1220</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N64" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R64">
         <v>801</v>
@@ -5558,10 +5751,13 @@
       <c r="V64">
         <v>801</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W64">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>87</v>
@@ -5570,43 +5766,43 @@
         <v>1245</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N65" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -5626,10 +5822,13 @@
       <c r="V65">
         <v>180</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B66">
         <v>15</v>
@@ -5638,43 +5837,43 @@
         <v>1410</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N66" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="O66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q66">
         <v>110</v>
@@ -5694,10 +5893,13 @@
       <c r="V66">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B67">
         <v>49</v>
@@ -5706,43 +5908,43 @@
         <v>1270</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N67" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R67">
         <v>138</v>
@@ -5759,10 +5961,13 @@
       <c r="V67">
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>29</v>
@@ -5771,43 +5976,43 @@
         <v>1332</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L68" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -5827,10 +6032,13 @@
       <c r="V68">
         <v>95</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W68">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B69">
         <v>66</v>
@@ -5839,43 +6047,43 @@
         <v>1175</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I69" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>403</v>
@@ -5892,10 +6100,13 @@
       <c r="V69">
         <v>251</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W69">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B70">
         <v>34</v>
@@ -5904,43 +6115,43 @@
         <v>1370</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I70" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L70" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q70">
         <v>27</v>
@@ -5960,10 +6171,13 @@
       <c r="V70">
         <v>32</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W70">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B71">
         <v>29</v>
@@ -5972,43 +6186,43 @@
         <v>1355</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J71" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="K71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N71" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q71">
         <v>14</v>
@@ -6028,10 +6242,13 @@
       <c r="V71">
         <v>64</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W71">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B72">
         <v>59</v>
@@ -6040,43 +6257,43 @@
         <v>1260</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O72" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R72">
         <v>347</v>
@@ -6093,10 +6310,13 @@
       <c r="V72">
         <v>192</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W72">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B73">
         <v>36</v>
@@ -6105,43 +6325,43 @@
         <v>1260</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R73">
         <v>751</v>
@@ -6158,10 +6378,13 @@
       <c r="V73">
         <v>601</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W73">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -6170,43 +6393,43 @@
         <v>1545</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J74" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L74" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N74" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q74">
         <v>100</v>
@@ -6226,10 +6449,13 @@
       <c r="V74">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B75">
         <v>85</v>
@@ -6238,43 +6464,43 @@
         <v>1250</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G75" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I75" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N75" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R75">
         <v>601</v>
@@ -6289,12 +6515,15 @@
         <v>601</v>
       </c>
       <c r="V75" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="B76">
         <v>80</v>
@@ -6303,43 +6532,43 @@
         <v>1280</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I76" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N76" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q76">
         <v>13</v>
@@ -6359,10 +6588,13 @@
       <c r="V76">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W76">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B77">
         <v>56</v>
@@ -6371,43 +6603,43 @@
         <v>1330</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J77" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R77">
         <v>373</v>
@@ -6424,10 +6656,13 @@
       <c r="V77">
         <v>401</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B78">
         <v>81</v>
@@ -6436,43 +6671,43 @@
         <v>1230</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N78" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R78">
         <v>3000</v>
@@ -6489,10 +6724,13 @@
       <c r="V78">
         <v>801</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>70</v>
@@ -6501,43 +6739,43 @@
         <v>1260</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I79" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N79" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R79">
         <v>531</v>
@@ -6554,10 +6792,13 @@
       <c r="V79">
         <v>351</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B80">
         <v>64</v>
@@ -6566,43 +6807,43 @@
         <v>1295</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I80" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N80" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P80" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R80">
         <v>751</v>
@@ -6619,10 +6860,13 @@
       <c r="V80">
         <v>401</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B81">
         <v>30</v>
@@ -6631,43 +6875,43 @@
         <v>1385</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I81" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J81" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N81" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R81">
         <v>173</v>
@@ -6684,10 +6928,13 @@
       <c r="V81">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="B82">
         <v>60</v>
@@ -6696,43 +6943,43 @@
         <v>1430</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I82" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N82" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q82">
         <v>30</v>
@@ -6752,10 +6999,13 @@
       <c r="V82">
         <v>48</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W82">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B83">
         <v>86</v>
@@ -6764,43 +7014,43 @@
         <v>1240</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R83">
         <v>455</v>
@@ -6817,10 +7067,13 @@
       <c r="V83">
         <v>301</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>92</v>
@@ -6829,43 +7082,43 @@
         <v>1210</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I84" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N84" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R84">
         <v>387</v>
@@ -6882,10 +7135,13 @@
       <c r="V84">
         <v>601</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W84">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B85">
         <v>94</v>
@@ -6894,43 +7150,43 @@
         <v>1206</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N85" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R85">
         <v>651</v>
@@ -6947,10 +7203,13 @@
       <c r="V85">
         <v>501</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="B86">
         <v>52</v>
@@ -6959,43 +7218,43 @@
         <v>1420</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J86" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N86" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q86">
         <v>9</v>
@@ -7015,10 +7274,13 @@
       <c r="V86">
         <v>104</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W86">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B87">
         <v>66</v>
@@ -7027,43 +7289,43 @@
         <v>1355</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I87" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J87" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R87">
         <v>246</v>
@@ -7080,10 +7342,13 @@
       <c r="V87">
         <v>191</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B88">
         <v>28</v>
@@ -7092,43 +7357,43 @@
         <v>1380</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N88" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -7148,10 +7413,13 @@
       <c r="V88">
         <v>194</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W88">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B89">
         <v>20</v>
@@ -7160,43 +7428,43 @@
         <v>1445</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N89" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q89">
         <v>26</v>
@@ -7216,10 +7484,13 @@
       <c r="V89">
         <v>23</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W89">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="B90">
         <v>73</v>
@@ -7228,43 +7499,43 @@
         <v>1400</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G90" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I90" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N90" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R90">
         <v>186</v>
@@ -7281,10 +7552,13 @@
       <c r="V90">
         <v>101</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W90">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -7293,43 +7567,43 @@
         <v>1125</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R91">
         <v>801</v>
@@ -7344,12 +7618,15 @@
         <v>801</v>
       </c>
       <c r="V91" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>77</v>
@@ -7358,43 +7635,43 @@
         <v>1240</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N92" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R92">
         <v>476</v>
@@ -7411,10 +7688,13 @@
       <c r="V92">
         <v>601</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W92">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>81</v>
@@ -7423,43 +7703,43 @@
         <v>1205</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N93" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R93">
         <v>571</v>
@@ -7476,10 +7756,13 @@
       <c r="V93">
         <v>401</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W93">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B94">
         <v>87</v>
@@ -7488,43 +7771,43 @@
         <v>1205</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R94">
         <v>801</v>
@@ -7539,12 +7822,15 @@
         <v>801</v>
       </c>
       <c r="V94" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B95">
         <v>19</v>
@@ -7553,43 +7839,43 @@
         <v>1415</v>
       </c>
       <c r="D95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I95" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N95" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -7609,10 +7895,13 @@
       <c r="V95">
         <v>69</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W95">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B96">
         <v>15</v>
@@ -7621,43 +7910,43 @@
         <v>1480</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J96" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N96" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R96">
         <v>222</v>
@@ -7674,10 +7963,13 @@
       <c r="V96">
         <v>201</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W96">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B97">
         <v>85</v>
@@ -7686,43 +7978,43 @@
         <v>1245</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I97" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J97" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="K97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N97" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R97">
         <v>651</v>
@@ -7737,12 +8029,15 @@
         <v>651</v>
       </c>
       <c r="V97" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W97">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B98">
         <v>93</v>
@@ -7751,43 +8046,43 @@
         <v>1220</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I98" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J98" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N98" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R98">
         <v>651</v>
@@ -7802,12 +8097,15 @@
         <v>651</v>
       </c>
       <c r="V98" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W98">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -7816,43 +8114,43 @@
         <v>1525</v>
       </c>
       <c r="D99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I99" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N99" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q99">
         <v>36</v>
@@ -7872,10 +8170,13 @@
       <c r="V99">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W99">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B100">
         <v>67</v>
@@ -7884,43 +8185,43 @@
         <v>1360</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I100" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J100" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M100" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N100" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O100" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R100">
         <v>163</v>
@@ -7937,10 +8238,13 @@
       <c r="V100">
         <v>144</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W100">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B101">
         <v>41</v>
@@ -7949,43 +8253,43 @@
         <v>1445</v>
       </c>
       <c r="D101" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H101" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J101" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K101" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L101" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M101" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N101" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q101">
         <v>13</v>
@@ -8005,10 +8309,13 @@
       <c r="V101">
         <v>154</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W101">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B102">
         <v>62</v>
@@ -8017,43 +8324,43 @@
         <v>1255</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L102" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N102" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O102" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R102">
         <v>601</v>
@@ -8068,12 +8375,15 @@
         <v>601</v>
       </c>
       <c r="V102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W102">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B103">
         <v>13</v>
@@ -8082,43 +8392,43 @@
         <v>1475</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N103" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -8138,10 +8448,13 @@
       <c r="V103">
         <v>65</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W103">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B104">
         <v>49</v>
@@ -8150,43 +8463,43 @@
         <v>1240</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H104" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J104" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N104" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O104" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R104">
         <v>581</v>
@@ -8203,10 +8516,13 @@
       <c r="V104">
         <v>201</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W104">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B105">
         <v>75</v>
@@ -8215,43 +8531,43 @@
         <v>1255</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E105" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G105" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I105" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L105" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R105">
         <v>541</v>
@@ -8268,10 +8584,13 @@
       <c r="V105">
         <v>301</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W105">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="B106">
         <v>29</v>
@@ -8280,43 +8599,43 @@
         <v>1365</v>
       </c>
       <c r="D106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I106" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N106" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q106">
         <v>13</v>
@@ -8336,10 +8655,13 @@
       <c r="V106">
         <v>50</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W106" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B107">
         <v>87</v>
@@ -8348,43 +8670,43 @@
         <v>1295</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I107" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L107" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O107" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R107">
         <v>477</v>
@@ -8401,10 +8723,13 @@
       <c r="V107">
         <v>351</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W107">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B108">
         <v>75</v>
@@ -8413,43 +8738,43 @@
         <v>1220</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G108" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I108" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J108" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L108" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N108" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R108">
         <v>801</v>
@@ -8466,10 +8791,13 @@
       <c r="V108">
         <v>401</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W108" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>64</v>
@@ -8478,43 +8806,43 @@
         <v>1325</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I109" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R109">
         <v>651</v>
@@ -8529,12 +8857,15 @@
         <v>651</v>
       </c>
       <c r="V109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W109">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="B110">
         <v>21</v>
@@ -8543,43 +8874,43 @@
         <v>1460</v>
       </c>
       <c r="D110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N110" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q110">
         <v>9</v>
@@ -8599,10 +8930,13 @@
       <c r="V110">
         <v>156</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B111">
         <v>60</v>
@@ -8611,43 +8945,43 @@
         <v>1425</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I111" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N111" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q111">
         <v>26</v>
@@ -8667,10 +9001,13 @@
       <c r="V111">
         <v>81</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W111">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -8679,43 +9016,43 @@
         <v>1525</v>
       </c>
       <c r="D112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I112" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N112" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -8735,10 +9072,13 @@
       <c r="V112">
         <v>98</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B113">
         <v>25</v>
@@ -8747,43 +9087,43 @@
         <v>1420</v>
       </c>
       <c r="D113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R113">
         <v>3000</v>
@@ -8798,12 +9138,15 @@
         <v>3000</v>
       </c>
       <c r="V113" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B114">
         <v>25</v>
@@ -8812,43 +9155,43 @@
         <v>1425</v>
       </c>
       <c r="D114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J114" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R114">
         <v>429</v>
@@ -8865,8 +9208,11 @@
       <c r="V114">
         <v>351</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W114">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>56</v>
       </c>
@@ -8877,43 +9223,43 @@
         <v>1530</v>
       </c>
       <c r="D115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L115" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q115">
         <v>25</v>
@@ -8933,10 +9279,13 @@
       <c r="V115">
         <v>57</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W115">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="B116">
         <v>37</v>
@@ -8945,43 +9294,43 @@
         <v>1440</v>
       </c>
       <c r="D116" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J116" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K116" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L116" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N116" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P116" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R116">
         <v>651</v>
@@ -8998,10 +9347,13 @@
       <c r="V116">
         <v>401</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W116">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B117">
         <v>60</v>
@@ -9010,43 +9362,43 @@
         <v>1380</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J117" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N117" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R117">
         <v>751</v>
@@ -9063,10 +9415,13 @@
       <c r="V117">
         <v>801</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W117">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -9075,43 +9430,43 @@
         <v>1530</v>
       </c>
       <c r="D118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N118" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q118">
         <v>65</v>
@@ -9131,10 +9486,13 @@
       <c r="V118">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="B119">
         <v>62</v>
@@ -9143,43 +9501,43 @@
         <v>1325</v>
       </c>
       <c r="D119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H119" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J119" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K119" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L119" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O119" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P119" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R119">
         <v>252</v>
@@ -9194,11 +9552,14 @@
         <v>252</v>
       </c>
       <c r="V119" t="s">
-        <v>152</v>
+        <v>58</v>
+      </c>
+      <c r="W119" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V119">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W119">
     <sortCondition ref="A1:A119"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aronf\Desktop\US-College-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{493C5A0B-9BF9-4D1A-B2D9-F77C826A14D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BACB32-4B46-4F27-B0B7-08FD3D028FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="4605" yWindow="2325" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="155">
   <si>
     <t>University Name</t>
   </si>
@@ -91,403 +91,406 @@
     <t>2022 RUR World Reputation Ranking</t>
   </si>
   <si>
+    <t>American University</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>Auburn University</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>Baylor University</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>No Ranking</t>
+  </si>
+  <si>
+    <t>Binghamton University</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>Brandeis University</t>
+  </si>
+  <si>
+    <t>D-</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>Brigham Young University</t>
+  </si>
+  <si>
+    <t>Brown University</t>
+  </si>
+  <si>
+    <t>California Institute of Technology</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>Case Western Reserve University</t>
+  </si>
+  <si>
+    <t>Catholic University of America</t>
+  </si>
+  <si>
+    <t>Clark University</t>
+  </si>
+  <si>
+    <t>Clemson University</t>
+  </si>
+  <si>
+    <t>Colorado School of Mines</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>Dartmouth College</t>
+  </si>
+  <si>
+    <t>Drexel University</t>
+  </si>
+  <si>
+    <t>Duke University</t>
+  </si>
+  <si>
+    <t>Emory University</t>
+  </si>
+  <si>
+    <t>George Washington University</t>
+  </si>
+  <si>
+    <t>Georgetown University</t>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology</t>
+  </si>
+  <si>
     <t>Harvard University</t>
   </si>
   <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>Howard University</t>
+  </si>
+  <si>
+    <t>Indiana University</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>Lehigh University</t>
+  </si>
+  <si>
+    <t>Loyola University of Chicago</t>
+  </si>
+  <si>
+    <t>Marquette University</t>
   </si>
   <si>
     <t>Massachusetts Institute of Technology</t>
   </si>
   <si>
-    <t>B-</t>
+    <t>Miami University of Ohio</t>
+  </si>
+  <si>
+    <t>New York University</t>
+  </si>
+  <si>
+    <t>North Carolina State University</t>
+  </si>
+  <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>Ohio State University</t>
+  </si>
+  <si>
+    <t>Ohio University</t>
+  </si>
+  <si>
+    <t>Pacific University</t>
+  </si>
+  <si>
+    <t>Pennsylvania State University</t>
+  </si>
+  <si>
+    <t>Pepperdine University</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>Purdue University</t>
+  </si>
+  <si>
+    <t>Rensselaer Polytechnic Institute</t>
+  </si>
+  <si>
+    <t>Rice University</t>
+  </si>
+  <si>
+    <t>Rochester Institute of Technology</t>
+  </si>
+  <si>
+    <t>Rutgers University</t>
+  </si>
+  <si>
+    <t>Saint Louis University</t>
+  </si>
+  <si>
+    <t>San Diego State University</t>
+  </si>
+  <si>
+    <t>Southern Methodist University</t>
   </si>
   <si>
     <t>Stanford University</t>
   </si>
   <si>
+    <t>Stevens Institute of Technology</t>
+  </si>
+  <si>
+    <t>Stony Brook University</t>
+  </si>
+  <si>
+    <t>Syracuse University</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University</t>
+  </si>
+  <si>
+    <t>Texas Christian University</t>
+  </si>
+  <si>
+    <t>Tufts University</t>
+  </si>
+  <si>
+    <t>Tulane University</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>University at Buffalo</t>
+  </si>
+  <si>
+    <t>University of Alabama</t>
+  </si>
+  <si>
+    <t>University of Arizona</t>
+  </si>
+  <si>
     <t>University of California Berkeley</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>C-</t>
-  </si>
-  <si>
-    <t>Princeton University</t>
+    <t>University of California Davis</t>
+  </si>
+  <si>
+    <t>University of California Irvine</t>
+  </si>
+  <si>
+    <t>University of California Riverside</t>
+  </si>
+  <si>
+    <t>University of California San Diego</t>
+  </si>
+  <si>
+    <t>University of California Santa Barbara</t>
+  </si>
+  <si>
+    <t>University of California Santa Cruz</t>
+  </si>
+  <si>
+    <t>University of Central Florida</t>
+  </si>
+  <si>
+    <t>University of Chicago</t>
+  </si>
+  <si>
+    <t>University of Cincinnati</t>
+  </si>
+  <si>
+    <t>University of Colorado</t>
+  </si>
+  <si>
+    <t>University of Connecticut</t>
+  </si>
+  <si>
+    <t>University of Dayton</t>
+  </si>
+  <si>
+    <t>University of Delaware</t>
+  </si>
+  <si>
+    <t>University of Denver</t>
+  </si>
+  <si>
+    <t>University of Florida</t>
+  </si>
+  <si>
+    <t>University of Illinois</t>
+  </si>
+  <si>
+    <t>University of Iowa</t>
+  </si>
+  <si>
+    <t>University of Kansas</t>
+  </si>
+  <si>
+    <t>University of Kentucky</t>
+  </si>
+  <si>
+    <t>University of Maryland</t>
+  </si>
+  <si>
+    <t>University of Massachusetts Amherst</t>
+  </si>
+  <si>
+    <t>University of Miami</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>University of Mississippi</t>
+  </si>
+  <si>
+    <t>University of Missouri</t>
+  </si>
+  <si>
+    <t>University of Nebraska</t>
+  </si>
+  <si>
+    <t>University of New Hampshire</t>
+  </si>
+  <si>
+    <t>University of North Carolina at Chapel Hill</t>
+  </si>
+  <si>
+    <t>University of Notre Dame</t>
+  </si>
+  <si>
+    <t>University of Oklahoma</t>
+  </si>
+  <si>
+    <t>University of Oregon</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>University of Rochester</t>
+  </si>
+  <si>
+    <t>University of South Carolina</t>
+  </si>
+  <si>
+    <t>University of Southern California</t>
+  </si>
+  <si>
+    <t>University of Southern Florida</t>
+  </si>
+  <si>
+    <t>University of Tennessee</t>
+  </si>
+  <si>
+    <t>University of Texas Austin</t>
+  </si>
+  <si>
+    <t>University of Texas Dallas</t>
+  </si>
+  <si>
+    <t>University of Tulsa</t>
+  </si>
+  <si>
+    <t>University of Vermont</t>
+  </si>
+  <si>
+    <t>University of Virginia</t>
+  </si>
+  <si>
+    <t>University of Wisconsin at Madison</t>
+  </si>
+  <si>
+    <t>Vanderbilt University</t>
+  </si>
+  <si>
+    <t>Villanova University</t>
+  </si>
+  <si>
+    <t>Wake Forest University</t>
+  </si>
+  <si>
+    <t>Washington University in St. Louis</t>
+  </si>
+  <si>
+    <t>William and Mary University</t>
+  </si>
+  <si>
+    <t>Worcester Polytechnic Institute</t>
   </si>
   <si>
     <t>Yale University</t>
   </si>
   <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>University of Chicago</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>University of Michigan</t>
-  </si>
-  <si>
-    <t>Columbia University</t>
-  </si>
-  <si>
-    <t>Johns Hopkins University</t>
-  </si>
-  <si>
-    <t>University of Pennsylvania</t>
-  </si>
-  <si>
-    <t>Cornell University</t>
-  </si>
-  <si>
-    <t>Georgia Institute of Technology</t>
-  </si>
-  <si>
-    <t>New York University</t>
-  </si>
-  <si>
-    <t>University of Wisconsin at Madison</t>
-  </si>
-  <si>
-    <t>University of California San Diego</t>
-  </si>
-  <si>
-    <t>Carnegie Mellon University</t>
-  </si>
-  <si>
-    <t>Northwestern University</t>
-  </si>
-  <si>
-    <t>Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>Purdue University</t>
-  </si>
-  <si>
-    <t>University of North Carolina at Chapel Hill</t>
-  </si>
-  <si>
-    <t>University of California Davis</t>
-  </si>
-  <si>
-    <t>Ohio State University</t>
-  </si>
-  <si>
-    <t>Washington University in St. Louis</t>
-  </si>
-  <si>
-    <t>University of California Santa Barbara</t>
-  </si>
-  <si>
-    <t>No Ranking</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh</t>
-  </si>
-  <si>
-    <t>University of Southern California</t>
-  </si>
-  <si>
-    <t>University of Florida</t>
-  </si>
-  <si>
-    <t>Boston University</t>
-  </si>
-  <si>
-    <t>Indiana University</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M University</t>
-  </si>
-  <si>
-    <t>Brown University</t>
-  </si>
-  <si>
-    <t>Emory University</t>
-  </si>
-  <si>
-    <t>University of Arizona</t>
-  </si>
-  <si>
-    <t>Vanderbilt University</t>
-  </si>
-  <si>
-    <t>University of California Irvine</t>
-  </si>
-  <si>
-    <t>North Carolina State University</t>
-  </si>
-  <si>
-    <t>University of Iowa</t>
-  </si>
-  <si>
-    <t>Rice University</t>
-  </si>
-  <si>
-    <t>Colorado School of Mines</t>
-  </si>
-  <si>
-    <t>Georgetown University</t>
-  </si>
-  <si>
-    <t>University of California Riverside</t>
-  </si>
-  <si>
-    <t>University of Notre Dame</t>
-  </si>
-  <si>
-    <t>Case Western Reserve University</t>
-  </si>
-  <si>
-    <t>Tufts University</t>
-  </si>
-  <si>
-    <t>George Washington University</t>
-  </si>
-  <si>
-    <t>Syracuse University</t>
-  </si>
-  <si>
-    <t>University of California Santa Cruz</t>
-  </si>
-  <si>
-    <t>University of Rochester</t>
-  </si>
-  <si>
-    <t>Dartmouth College</t>
-  </si>
-  <si>
-    <t>Boston College</t>
-  </si>
-  <si>
-    <t>University of Miami</t>
-  </si>
-  <si>
-    <t>University of Delaware</t>
-  </si>
-  <si>
-    <t>University of Kansas</t>
-  </si>
-  <si>
-    <t>University of Oregon</t>
-  </si>
-  <si>
-    <t>University of Central Florida</t>
-  </si>
-  <si>
-    <t>Northeastern University</t>
-  </si>
-  <si>
-    <t>University of Texas Dallas</t>
-  </si>
-  <si>
-    <t>University of Missouri</t>
-  </si>
-  <si>
-    <t>University of Connecticut</t>
-  </si>
-  <si>
-    <t>Auburn University</t>
-  </si>
-  <si>
-    <t>University of Southern Florida</t>
-  </si>
-  <si>
-    <t>Drexel University</t>
-  </si>
-  <si>
-    <t>Tulane University</t>
-  </si>
-  <si>
-    <t>University of South Carolina</t>
-  </si>
-  <si>
-    <t>University of Oklahoma</t>
-  </si>
-  <si>
-    <t>Rensselaer Polytechnic Institute</t>
-  </si>
-  <si>
-    <t>Wake Forest University</t>
-  </si>
-  <si>
-    <t>University of Nebraska</t>
-  </si>
-  <si>
-    <t>Lehigh University</t>
-  </si>
-  <si>
-    <t>San Diego State University</t>
-  </si>
-  <si>
-    <t>American University</t>
-  </si>
-  <si>
-    <t>Worcester Polytechnic Institute</t>
-  </si>
-  <si>
-    <t>University of Vermont</t>
-  </si>
-  <si>
-    <t>Brandeis University</t>
-  </si>
-  <si>
-    <t>D-</t>
-  </si>
-  <si>
-    <t>D+</t>
-  </si>
-  <si>
-    <t>Texas Christian University</t>
-  </si>
-  <si>
-    <t>Marquette University</t>
-  </si>
-  <si>
-    <t>Stevens Institute of Technology</t>
-  </si>
-  <si>
-    <t>Baylor University</t>
-  </si>
-  <si>
-    <t>Binghamton University</t>
-  </si>
-  <si>
-    <t>Brigham Young University</t>
-  </si>
-  <si>
-    <t>California Institute of Technology</t>
-  </si>
-  <si>
-    <t>Catholic University of America</t>
-  </si>
-  <si>
-    <t>Clark University</t>
-  </si>
-  <si>
-    <t>Clemson University</t>
-  </si>
-  <si>
-    <t>Duke University</t>
-  </si>
-  <si>
-    <t>Howard University</t>
-  </si>
-  <si>
-    <t>Loyola University of Chicago</t>
-  </si>
-  <si>
-    <t>Miami University of Ohio</t>
-  </si>
-  <si>
-    <t>Ohio University</t>
-  </si>
-  <si>
-    <t>Pacific University</t>
-  </si>
-  <si>
-    <t>Pepperdine University</t>
-  </si>
-  <si>
-    <t>Rochester Institute of Technology</t>
-  </si>
-  <si>
-    <t>Rutgers University</t>
-  </si>
-  <si>
-    <t>Saint Louis University</t>
-  </si>
-  <si>
-    <t>Southern Methodist University</t>
-  </si>
-  <si>
-    <t>Stony Brook University</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>University at Buffalo</t>
-  </si>
-  <si>
-    <t>University of Alabama</t>
-  </si>
-  <si>
-    <t>University of Cincinnati</t>
-  </si>
-  <si>
-    <t>University of Colorado</t>
-  </si>
-  <si>
-    <t>University of Dayton</t>
-  </si>
-  <si>
-    <t>University of Denver</t>
-  </si>
-  <si>
-    <t>University of Illinois</t>
-  </si>
-  <si>
-    <t>University of Kentucky</t>
-  </si>
-  <si>
-    <t>University of Maryland</t>
-  </si>
-  <si>
-    <t>University of Massachusetts Amherst</t>
-  </si>
-  <si>
-    <t>University of Minnesota</t>
-  </si>
-  <si>
-    <t>University of Mississippi</t>
-  </si>
-  <si>
-    <t>University of New Hampshire</t>
-  </si>
-  <si>
-    <t>University of Tennessee</t>
-  </si>
-  <si>
-    <t>University of Texas Austin</t>
-  </si>
-  <si>
-    <t>University of Tulsa</t>
-  </si>
-  <si>
-    <t>University of Virginia</t>
-  </si>
-  <si>
-    <t>Villanova University</t>
-  </si>
-  <si>
-    <t>William and Mary University</t>
-  </si>
-  <si>
     <t>Yeshiva University</t>
+  </si>
+  <si>
+    <t>2023 CSRankings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1321,20 +1324,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="S113" sqref="S113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1404,10 +1406,13 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -1416,43 +1421,43 @@
         <v>1360</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R2">
         <v>651</v>
@@ -1472,10 +1477,13 @@
       <c r="W2">
         <v>509</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>71</v>
@@ -1484,43 +1492,43 @@
         <v>1260</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R3">
         <v>801</v>
@@ -1540,10 +1548,13 @@
       <c r="W3">
         <v>318</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>57</v>
@@ -1552,43 +1563,43 @@
         <v>1255</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R4">
         <v>1001</v>
@@ -1606,12 +1617,15 @@
         <v>601</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>44</v>
@@ -1620,43 +1634,43 @@
         <v>1390</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R5">
         <v>801</v>
@@ -1676,10 +1690,13 @@
       <c r="W5">
         <v>549</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>19</v>
@@ -1688,43 +1705,43 @@
         <v>1475</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R6">
         <v>494</v>
@@ -1744,10 +1761,13 @@
       <c r="W6">
         <v>225</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -1756,43 +1776,43 @@
         <v>1440</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -1815,10 +1835,13 @@
       <c r="W7">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>39</v>
@@ -1827,43 +1850,43 @@
         <v>1450</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
-        <v>39</v>
-      </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -1886,10 +1909,13 @@
       <c r="W8">
         <v>584</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>59</v>
@@ -1898,43 +1924,43 @@
         <v>1330</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R9">
         <v>1001</v>
@@ -1949,15 +1975,18 @@
         <v>1001</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1966,43 +1995,43 @@
         <v>1515</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2025,10 +2054,13 @@
       <c r="W10">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2037,43 +2069,43 @@
         <v>1555</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q11">
         <v>76</v>
@@ -2096,10 +2128,13 @@
       <c r="W11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>14</v>
@@ -2108,43 +2143,43 @@
         <v>1520</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q12">
         <v>20</v>
@@ -2167,10 +2202,13 @@
       <c r="W12">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -2179,43 +2217,43 @@
         <v>1470</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q13">
         <v>18</v>
@@ -2238,10 +2276,13 @@
       <c r="W13">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>86</v>
@@ -2250,43 +2291,43 @@
         <v>1255</v>
       </c>
       <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R14">
         <v>3000</v>
@@ -2301,15 +2342,18 @@
         <v>3000</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>48</v>
@@ -2318,43 +2362,43 @@
         <v>1310</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R15">
         <v>751</v>
@@ -2372,12 +2416,15 @@
         <v>1001</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>49</v>
@@ -2386,43 +2433,43 @@
         <v>1320</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R16">
         <v>801</v>
@@ -2440,12 +2487,15 @@
         <v>801</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>57</v>
@@ -2454,43 +2504,43 @@
         <v>1390</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>37</v>
-      </c>
       <c r="M17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R17">
         <v>461</v>
@@ -2510,10 +2560,13 @@
       <c r="W17">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -2522,43 +2575,43 @@
         <v>1515</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q18">
         <v>96</v>
@@ -2581,10 +2634,13 @@
       <c r="W18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -2593,43 +2649,43 @@
         <v>1505</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q19">
         <v>61</v>
@@ -2652,10 +2708,13 @@
       <c r="W19">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -2664,43 +2723,43 @@
         <v>1500</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R20">
         <v>191</v>
@@ -2720,10 +2779,13 @@
       <c r="W20">
         <v>217</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>83</v>
@@ -2732,43 +2794,43 @@
         <v>1310</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" t="s">
-        <v>34</v>
-      </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R21">
         <v>651</v>
@@ -2788,10 +2850,13 @@
       <c r="W21">
         <v>341</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2800,43 +2865,43 @@
         <v>1525</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q22">
         <v>15</v>
@@ -2857,12 +2922,15 @@
         <v>25</v>
       </c>
       <c r="W22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -2871,43 +2939,43 @@
         <v>1480</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R23">
         <v>160</v>
@@ -2927,10 +2995,13 @@
       <c r="W23">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>50</v>
@@ -2939,43 +3010,43 @@
         <v>1400</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R24">
         <v>355</v>
@@ -2995,10 +3066,13 @@
       <c r="W24">
         <v>205</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -3007,43 +3081,43 @@
         <v>1480</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
         <v>28</v>
       </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R25">
         <v>248</v>
@@ -3063,10 +3137,13 @@
       <c r="W25">
         <v>152</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>18</v>
@@ -3075,43 +3152,43 @@
         <v>1450</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R26">
         <v>88</v>
@@ -3131,10 +3208,13 @@
       <c r="W26">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -3143,43 +3223,43 @@
         <v>1530</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q27">
         <v>161</v>
@@ -3202,10 +3282,13 @@
       <c r="W27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>35</v>
@@ -3214,43 +3297,43 @@
         <v>1185</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R28">
         <v>651</v>
@@ -3268,12 +3351,15 @@
         <v>351</v>
       </c>
       <c r="W28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>85</v>
@@ -3282,43 +3368,43 @@
         <v>1270</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -3341,10 +3427,13 @@
       <c r="W29">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -3353,43 +3442,43 @@
         <v>1540</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q30">
         <v>39</v>
@@ -3412,10 +3501,13 @@
       <c r="W30">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>46</v>
@@ -3424,43 +3516,43 @@
         <v>1407</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R31">
         <v>531</v>
@@ -3480,10 +3572,13 @@
       <c r="W31">
         <v>439</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>77</v>
@@ -3492,43 +3587,43 @@
         <v>1260</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R32">
         <v>801</v>
@@ -3543,15 +3638,18 @@
         <v>801</v>
       </c>
       <c r="V32" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <v>86</v>
@@ -3560,43 +3658,43 @@
         <v>1270</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R33">
         <v>1001</v>
@@ -3616,10 +3714,13 @@
       <c r="W33">
         <v>672</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -3628,43 +3729,43 @@
         <v>1545</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q34">
         <v>97</v>
@@ -3687,10 +3788,13 @@
       <c r="W34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>89</v>
@@ -3699,43 +3803,43 @@
         <v>1265</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R35">
         <v>1001</v>
@@ -3750,15 +3854,18 @@
         <v>1001</v>
       </c>
       <c r="V35" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W35">
         <v>513</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B36">
         <v>13</v>
@@ -3767,43 +3874,43 @@
         <v>1510</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P36" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q36">
         <v>38</v>
@@ -3826,8 +3933,11 @@
       <c r="W36">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3838,43 +3948,43 @@
         <v>1355</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O37" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R37">
         <v>300</v>
@@ -3894,10 +4004,13 @@
       <c r="W37">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>18</v>
@@ -3906,43 +4019,43 @@
         <v>1490</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K38" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L38" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M38" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O38" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R38">
         <v>342</v>
@@ -3962,10 +4075,13 @@
       <c r="W38">
         <v>291</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -3974,43 +4090,43 @@
         <v>1510</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J39" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L39" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O39" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P39" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q39">
         <v>22</v>
@@ -4033,10 +4149,13 @@
       <c r="W39">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B40">
         <v>57</v>
@@ -4045,43 +4164,43 @@
         <v>1345</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K40" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L40" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N40" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O40" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R40">
         <v>120</v>
@@ -4101,10 +4220,13 @@
       <c r="W40">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <v>89</v>
@@ -4113,43 +4235,43 @@
         <v>1180</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K41" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O41" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R41">
         <v>1001</v>
@@ -4167,12 +4289,15 @@
         <v>801</v>
       </c>
       <c r="W41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X41">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="B42">
         <v>79</v>
@@ -4181,43 +4306,43 @@
         <v>1250</v>
       </c>
       <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" t="s">
         <v>27</v>
       </c>
-      <c r="E42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" t="s">
-        <v>34</v>
-      </c>
       <c r="K42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M42" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N42" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O42" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P42" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R42">
         <v>1001</v>
@@ -4232,15 +4357,18 @@
         <v>1001</v>
       </c>
       <c r="V42" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B43">
         <v>58</v>
@@ -4249,43 +4377,43 @@
         <v>1300</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K43" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M43" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O43" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R43">
         <v>96</v>
@@ -4305,10 +4433,13 @@
       <c r="W43">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B44">
         <v>53</v>
@@ -4317,43 +4448,43 @@
         <v>1350</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J44" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L44" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M44" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R44">
         <v>3000</v>
@@ -4368,15 +4499,18 @@
         <v>3000</v>
       </c>
       <c r="V44" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -4385,43 +4519,43 @@
         <v>1515</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K45" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M45" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O45" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P45" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q45">
         <v>69</v>
@@ -4444,10 +4578,13 @@
       <c r="W45">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B46">
         <v>69</v>
@@ -4456,43 +4593,43 @@
         <v>1310</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M46" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P46" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -4515,10 +4652,13 @@
       <c r="W46">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B47">
         <v>53</v>
@@ -4527,43 +4667,43 @@
         <v>1440</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
         <v>34</v>
       </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R47">
         <v>431</v>
@@ -4583,10 +4723,13 @@
       <c r="W47">
         <v>375</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B48">
         <v>9</v>
@@ -4595,43 +4738,43 @@
         <v>1530</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R48">
         <v>94</v>
@@ -4651,10 +4794,13 @@
       <c r="W48">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="B49">
         <v>71</v>
@@ -4663,43 +4809,43 @@
         <v>1360</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
         <v>34</v>
       </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
       <c r="H49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K49" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M49" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N49" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P49" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R49">
         <v>1001</v>
@@ -4717,12 +4863,15 @@
         <v>1001</v>
       </c>
       <c r="W49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X49">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="B50">
         <v>68</v>
@@ -4731,43 +4880,43 @@
         <v>1355</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J50" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O50" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -4790,10 +4939,13 @@
       <c r="W50">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B51">
         <v>70</v>
@@ -4802,43 +4954,43 @@
         <v>1265</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O51" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R51">
         <v>3000</v>
@@ -4856,12 +5008,15 @@
         <v>301</v>
       </c>
       <c r="W51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B52">
         <v>38</v>
@@ -4870,43 +5025,43 @@
         <v>1225</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L52" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O52" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P52" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R52">
         <v>1001</v>
@@ -4926,10 +5081,13 @@
       <c r="W52">
         <v>451</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -4938,43 +5096,43 @@
         <v>1425</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J53" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K53" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L53" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M53" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O53" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R53">
         <v>801</v>
@@ -4989,15 +5147,18 @@
         <v>801</v>
       </c>
       <c r="V53" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X53">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -5006,43 +5167,43 @@
         <v>1520</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K54" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L54" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M54" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N54" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O54" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P54" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q54">
         <v>84</v>
@@ -5065,10 +5226,13 @@
       <c r="W54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -5077,43 +5241,43 @@
         <v>1440</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J55" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K55" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L55" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M55" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O55" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R55">
         <v>701</v>
@@ -5133,10 +5297,13 @@
       <c r="W55">
         <v>722</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X55">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B56">
         <v>48</v>
@@ -5145,43 +5312,43 @@
         <v>1390</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K56" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M56" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R56">
         <v>378</v>
@@ -5201,10 +5368,13 @@
       <c r="W56">
         <v>254</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B57">
         <v>59</v>
@@ -5213,43 +5383,43 @@
         <v>1310</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
         <v>28</v>
       </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
       <c r="H57" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K57" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L57" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M57" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O57" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R57">
         <v>651</v>
@@ -5269,10 +5439,13 @@
       <c r="W57">
         <v>206</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X57">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B58">
         <v>64</v>
@@ -5281,43 +5454,43 @@
         <v>1260</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K58" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M58" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N58" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O58" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -5340,10 +5513,13 @@
       <c r="W58">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B59">
         <v>54</v>
@@ -5352,43 +5528,43 @@
         <v>1240</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J59" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M59" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N59" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O59" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R59">
         <v>3000</v>
@@ -5403,15 +5579,18 @@
         <v>3000</v>
       </c>
       <c r="V59" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W59">
         <v>642</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B60">
         <v>11</v>
@@ -5420,43 +5599,43 @@
         <v>1495</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N60" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P60" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -5479,10 +5658,13 @@
       <c r="W60">
         <v>187</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -5491,43 +5673,43 @@
         <v>1435</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J61" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K61" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L61" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M61" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O61" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R61">
         <v>436</v>
@@ -5547,10 +5729,13 @@
       <c r="W61">
         <v>352</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -5559,43 +5744,43 @@
         <v>1405</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O62" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q62">
         <v>25</v>
@@ -5618,10 +5803,13 @@
       <c r="W62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B63">
         <v>70</v>
@@ -5630,43 +5818,43 @@
         <v>1270</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G63" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I63" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K63" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L63" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M63" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O63" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P63" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R63">
         <v>388</v>
@@ -5686,10 +5874,13 @@
       <c r="W63">
         <v>289</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="B64">
         <v>79</v>
@@ -5698,43 +5889,43 @@
         <v>1220</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K64" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L64" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M64" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N64" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O64" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R64">
         <v>801</v>
@@ -5754,10 +5945,13 @@
       <c r="W64">
         <v>446</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X64">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B65">
         <v>87</v>
@@ -5766,43 +5960,43 @@
         <v>1245</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H65" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K65" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L65" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O65" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -5825,10 +6019,13 @@
       <c r="W65">
         <v>98</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X65">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="B66">
         <v>15</v>
@@ -5837,43 +6034,43 @@
         <v>1410</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="J66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K66" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N66" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O66" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P66" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q66">
         <v>110</v>
@@ -5896,10 +6093,13 @@
       <c r="W66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B67">
         <v>49</v>
@@ -5908,43 +6108,43 @@
         <v>1270</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M67" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R67">
         <v>138</v>
@@ -5964,10 +6164,13 @@
       <c r="W67">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X67">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B68">
         <v>29</v>
@@ -5976,43 +6179,43 @@
         <v>1332</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K68" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -6035,10 +6238,13 @@
       <c r="W68">
         <v>103</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B69">
         <v>66</v>
@@ -6047,43 +6253,43 @@
         <v>1175</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K69" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L69" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O69" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P69" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R69">
         <v>403</v>
@@ -6103,10 +6309,13 @@
       <c r="W69">
         <v>176</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X69">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B70">
         <v>34</v>
@@ -6115,43 +6324,43 @@
         <v>1370</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K70" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M70" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P70" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q70">
         <v>27</v>
@@ -6174,10 +6383,13 @@
       <c r="W70">
         <v>33</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>29</v>
@@ -6186,43 +6398,43 @@
         <v>1355</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I71" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J71" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="K71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L71" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O71" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q71">
         <v>14</v>
@@ -6245,10 +6457,13 @@
       <c r="W71">
         <v>62</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X71">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B72">
         <v>59</v>
@@ -6257,43 +6472,43 @@
         <v>1260</v>
       </c>
       <c r="D72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
         <v>27</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
         <v>34</v>
       </c>
-      <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
       <c r="H72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" t="s">
         <v>34</v>
       </c>
-      <c r="J72" t="s">
-        <v>27</v>
-      </c>
-      <c r="K72" t="s">
-        <v>28</v>
-      </c>
-      <c r="L72" t="s">
-        <v>28</v>
-      </c>
-      <c r="M72" t="s">
-        <v>25</v>
-      </c>
-      <c r="N72" t="s">
-        <v>37</v>
-      </c>
       <c r="O72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P72" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R72">
         <v>347</v>
@@ -6313,10 +6528,13 @@
       <c r="W72">
         <v>208</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B73">
         <v>36</v>
@@ -6325,43 +6543,43 @@
         <v>1260</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J73" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M73" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N73" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O73" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P73" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R73">
         <v>751</v>
@@ -6381,10 +6599,13 @@
       <c r="W73">
         <v>279</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X73">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -6393,43 +6614,43 @@
         <v>1545</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I74" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J74" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K74" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M74" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O74" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P74" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q74">
         <v>100</v>
@@ -6452,10 +6673,13 @@
       <c r="W74">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X74">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B75">
         <v>85</v>
@@ -6464,43 +6688,43 @@
         <v>1250</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J75" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K75" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L75" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M75" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O75" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P75" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R75">
         <v>601</v>
@@ -6515,15 +6739,18 @@
         <v>601</v>
       </c>
       <c r="V75" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X75">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="B76">
         <v>80</v>
@@ -6532,43 +6759,43 @@
         <v>1280</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H76" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K76" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L76" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O76" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P76" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q76">
         <v>13</v>
@@ -6591,10 +6818,13 @@
       <c r="W76">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X76">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B77">
         <v>56</v>
@@ -6603,43 +6833,43 @@
         <v>1330</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M77" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R77">
         <v>373</v>
@@ -6659,10 +6889,13 @@
       <c r="W77">
         <v>316</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B78">
         <v>81</v>
@@ -6671,43 +6904,43 @@
         <v>1230</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J78" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K78" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L78" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M78" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O78" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P78" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R78">
         <v>3000</v>
@@ -6725,12 +6958,15 @@
         <v>801</v>
       </c>
       <c r="W78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B79">
         <v>70</v>
@@ -6739,43 +6975,43 @@
         <v>1260</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I79" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L79" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N79" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O79" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R79">
         <v>531</v>
@@ -6795,10 +7031,13 @@
       <c r="W79">
         <v>244</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X79">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B80">
         <v>64</v>
@@ -6807,43 +7046,43 @@
         <v>1295</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
         <v>28</v>
       </c>
-      <c r="G80" t="s">
-        <v>39</v>
-      </c>
       <c r="H80" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M80" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P80" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R80">
         <v>751</v>
@@ -6861,12 +7100,15 @@
         <v>401</v>
       </c>
       <c r="W80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X80">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B81">
         <v>30</v>
@@ -6875,43 +7117,43 @@
         <v>1385</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K81" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L81" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M81" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N81" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O81" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P81" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R81">
         <v>173</v>
@@ -6931,10 +7173,13 @@
       <c r="W81">
         <v>70</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X81">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B82">
         <v>60</v>
@@ -6943,43 +7188,43 @@
         <v>1430</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K82" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L82" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M82" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N82" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O82" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P82" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q82">
         <v>30</v>
@@ -7002,10 +7247,13 @@
       <c r="W82">
         <v>23</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B83">
         <v>86</v>
@@ -7014,43 +7262,43 @@
         <v>1240</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L83" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O83" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R83">
         <v>455</v>
@@ -7070,10 +7318,13 @@
       <c r="W83">
         <v>132</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X83">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B84">
         <v>92</v>
@@ -7082,43 +7333,43 @@
         <v>1210</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G84" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I84" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K84" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L84" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N84" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O84" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R84">
         <v>387</v>
@@ -7138,10 +7389,13 @@
       <c r="W84">
         <v>263</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X84">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B85">
         <v>94</v>
@@ -7150,43 +7404,43 @@
         <v>1206</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E85" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G85" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H85" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I85" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J85" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K85" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L85" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O85" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P85" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R85">
         <v>651</v>
@@ -7204,12 +7458,15 @@
         <v>501</v>
       </c>
       <c r="W85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X85">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B86">
         <v>52</v>
@@ -7218,43 +7475,43 @@
         <v>1420</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I86" t="s">
+        <v>27</v>
+      </c>
+      <c r="J86" t="s">
         <v>34</v>
       </c>
-      <c r="J86" t="s">
-        <v>37</v>
-      </c>
       <c r="K86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L86" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O86" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q86">
         <v>9</v>
@@ -7277,10 +7534,13 @@
       <c r="W86">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B87">
         <v>66</v>
@@ -7289,43 +7549,43 @@
         <v>1355</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J87" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L87" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N87" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O87" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R87">
         <v>246</v>
@@ -7343,12 +7603,15 @@
         <v>191</v>
       </c>
       <c r="W87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X87">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B88">
         <v>28</v>
@@ -7357,43 +7620,43 @@
         <v>1380</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E88" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H88" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I88" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K88" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L88" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M88" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O88" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P88" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -7416,10 +7679,13 @@
       <c r="W88">
         <v>227</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X88">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="B89">
         <v>20</v>
@@ -7428,43 +7694,43 @@
         <v>1445</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E89" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G89" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I89" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J89" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K89" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L89" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M89" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O89" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P89" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q89">
         <v>26</v>
@@ -7487,10 +7753,13 @@
       <c r="W89">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B90">
         <v>73</v>
@@ -7499,43 +7768,43 @@
         <v>1400</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" t="s">
+        <v>24</v>
+      </c>
+      <c r="L90" t="s">
+        <v>32</v>
+      </c>
+      <c r="M90" t="s">
+        <v>24</v>
+      </c>
+      <c r="N90" t="s">
         <v>28</v>
       </c>
-      <c r="H90" t="s">
-        <v>26</v>
-      </c>
-      <c r="I90" t="s">
-        <v>37</v>
-      </c>
-      <c r="J90" t="s">
-        <v>24</v>
-      </c>
-      <c r="K90" t="s">
-        <v>26</v>
-      </c>
-      <c r="L90" t="s">
-        <v>24</v>
-      </c>
-      <c r="M90" t="s">
-        <v>26</v>
-      </c>
-      <c r="N90" t="s">
-        <v>39</v>
-      </c>
       <c r="O90" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P90" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R90">
         <v>186</v>
@@ -7555,10 +7824,13 @@
       <c r="W90">
         <v>46</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X90">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -7567,43 +7839,43 @@
         <v>1125</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L91" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N91" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O91" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P91" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R91">
         <v>801</v>
@@ -7618,15 +7890,18 @@
         <v>801</v>
       </c>
       <c r="V91" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="B92">
         <v>77</v>
@@ -7635,43 +7910,43 @@
         <v>1240</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G92" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H92" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I92" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J92" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K92" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L92" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N92" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O92" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P92" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R92">
         <v>476</v>
@@ -7691,10 +7966,13 @@
       <c r="W92">
         <v>302</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X92">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B93">
         <v>81</v>
@@ -7703,43 +7981,43 @@
         <v>1205</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H93" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J93" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K93" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L93" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M93" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N93" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O93" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P93" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R93">
         <v>571</v>
@@ -7759,10 +8037,13 @@
       <c r="W93">
         <v>402</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X93">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B94">
         <v>87</v>
@@ -7771,43 +8052,43 @@
         <v>1205</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M94" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R94">
         <v>801</v>
@@ -7822,15 +8103,18 @@
         <v>801</v>
       </c>
       <c r="V94" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X94">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="B95">
         <v>19</v>
@@ -7839,43 +8123,43 @@
         <v>1415</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H95" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I95" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J95" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K95" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L95" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M95" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N95" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O95" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P95" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -7898,10 +8182,13 @@
       <c r="W95">
         <v>41</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X95">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B96">
         <v>15</v>
@@ -7910,43 +8197,43 @@
         <v>1480</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I96" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K96" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M96" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N96" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O96" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P96" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R96">
         <v>222</v>
@@ -7966,10 +8253,13 @@
       <c r="W96">
         <v>181</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X96">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B97">
         <v>85</v>
@@ -7978,43 +8268,43 @@
         <v>1245</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E97" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J97" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="K97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L97" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N97" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O97" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P97" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R97">
         <v>651</v>
@@ -8029,15 +8319,18 @@
         <v>651</v>
       </c>
       <c r="V97" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W97">
         <v>356</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X97">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B98">
         <v>93</v>
@@ -8046,43 +8339,43 @@
         <v>1220</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G98" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H98" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I98" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L98" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M98" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O98" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R98">
         <v>651</v>
@@ -8097,15 +8390,18 @@
         <v>651</v>
       </c>
       <c r="V98" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W98">
         <v>275</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X98">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -8114,43 +8410,43 @@
         <v>1525</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H99" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J99" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K99" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L99" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M99" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O99" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P99" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q99">
         <v>36</v>
@@ -8173,10 +8469,13 @@
       <c r="W99">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X99">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="B100">
         <v>67</v>
@@ -8185,43 +8484,43 @@
         <v>1360</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I100" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J100" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M100" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N100" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O100" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R100">
         <v>163</v>
@@ -8241,10 +8540,13 @@
       <c r="W100">
         <v>67</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X100">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B101">
         <v>41</v>
@@ -8253,43 +8555,43 @@
         <v>1445</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I101" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J101" t="s">
+        <v>25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>32</v>
+      </c>
+      <c r="L101" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>32</v>
+      </c>
+      <c r="N101" t="s">
         <v>28</v>
       </c>
-      <c r="K101" t="s">
-        <v>24</v>
-      </c>
-      <c r="L101" t="s">
-        <v>28</v>
-      </c>
-      <c r="M101" t="s">
-        <v>24</v>
-      </c>
-      <c r="N101" t="s">
-        <v>39</v>
-      </c>
       <c r="O101" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q101">
         <v>13</v>
@@ -8312,10 +8614,13 @@
       <c r="W101">
         <v>209</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X101">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B102">
         <v>62</v>
@@ -8324,43 +8629,43 @@
         <v>1255</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H102" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I102" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J102" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L102" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M102" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N102" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O102" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P102" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R102">
         <v>601</v>
@@ -8375,15 +8680,18 @@
         <v>601</v>
       </c>
       <c r="V102" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W102">
         <v>355</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X102">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="B103">
         <v>13</v>
@@ -8392,43 +8700,43 @@
         <v>1475</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H103" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I103" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J103" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K103" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L103" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M103" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N103" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O103" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P103" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -8451,10 +8759,13 @@
       <c r="W103">
         <v>68</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X103">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="B104">
         <v>49</v>
@@ -8463,43 +8774,43 @@
         <v>1240</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E104" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H104" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J104" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K104" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L104" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M104" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N104" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O104" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P104" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R104">
         <v>581</v>
@@ -8519,10 +8830,13 @@
       <c r="W104">
         <v>332</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X104">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B105">
         <v>75</v>
@@ -8531,43 +8845,43 @@
         <v>1255</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" t="s">
+        <v>30</v>
+      </c>
+      <c r="I105" t="s">
         <v>28</v>
       </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" t="s">
-        <v>27</v>
-      </c>
-      <c r="I105" t="s">
-        <v>39</v>
-      </c>
       <c r="J105" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K105" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L105" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M105" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O105" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P105" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R105">
         <v>541</v>
@@ -8587,10 +8901,13 @@
       <c r="W105">
         <v>314</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X105">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B106">
         <v>29</v>
@@ -8599,43 +8916,43 @@
         <v>1365</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H106" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I106" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J106" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K106" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L106" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M106" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N106" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O106" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P106" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q106">
         <v>13</v>
@@ -8656,12 +8973,15 @@
         <v>50</v>
       </c>
       <c r="W106" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X106">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B107">
         <v>87</v>
@@ -8670,43 +8990,43 @@
         <v>1295</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G107" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107" t="s">
+        <v>30</v>
+      </c>
+      <c r="K107" t="s">
+        <v>29</v>
+      </c>
+      <c r="L107" t="s">
         <v>28</v>
       </c>
-      <c r="H107" t="s">
-        <v>26</v>
-      </c>
-      <c r="I107" t="s">
-        <v>28</v>
-      </c>
-      <c r="J107" t="s">
-        <v>27</v>
-      </c>
-      <c r="K107" t="s">
-        <v>25</v>
-      </c>
-      <c r="L107" t="s">
-        <v>39</v>
-      </c>
       <c r="M107" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N107" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O107" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P107" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R107">
         <v>477</v>
@@ -8726,10 +9046,13 @@
       <c r="W107">
         <v>296</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X107">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B108">
         <v>75</v>
@@ -8738,43 +9061,43 @@
         <v>1220</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H108" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I108" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J108" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K108" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L108" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M108" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N108" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O108" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P108" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R108">
         <v>801</v>
@@ -8792,12 +9115,15 @@
         <v>401</v>
       </c>
       <c r="W108" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X108">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B109">
         <v>64</v>
@@ -8806,43 +9132,43 @@
         <v>1325</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J109" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K109" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L109" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M109" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O109" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P109" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R109">
         <v>651</v>
@@ -8857,15 +9183,18 @@
         <v>651</v>
       </c>
       <c r="V109" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W109">
         <v>539</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X109">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B110">
         <v>21</v>
@@ -8874,43 +9203,43 @@
         <v>1460</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E110" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H110" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I110" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J110" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K110" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L110" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M110" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N110" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O110" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P110" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q110">
         <v>9</v>
@@ -8931,12 +9260,15 @@
         <v>156</v>
       </c>
       <c r="W110" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X110">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B111">
         <v>60</v>
@@ -8945,43 +9277,43 @@
         <v>1425</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G111" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H111" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I111" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J111" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K111" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L111" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M111" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N111" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O111" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P111" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q111">
         <v>26</v>
@@ -9004,10 +9336,13 @@
       <c r="W111">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -9016,43 +9351,43 @@
         <v>1525</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E112" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F112" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G112" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H112" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I112" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J112" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K112" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L112" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M112" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N112" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O112" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P112" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -9075,10 +9410,13 @@
       <c r="W112">
         <v>100</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X112">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B113">
         <v>25</v>
@@ -9087,43 +9425,43 @@
         <v>1420</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H113" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I113" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J113" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K113" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L113" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M113" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N113" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O113" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P113" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R113">
         <v>3000</v>
@@ -9138,15 +9476,18 @@
         <v>3000</v>
       </c>
       <c r="V113" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W113" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="X113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="B114">
         <v>25</v>
@@ -9155,43 +9496,43 @@
         <v>1425</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E114" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H114" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I114" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K114" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L114" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M114" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N114" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O114" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P114" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R114">
         <v>429</v>
@@ -9211,10 +9552,13 @@
       <c r="W114">
         <v>400</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X114" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="B115">
         <v>13</v>
@@ -9223,43 +9567,43 @@
         <v>1530</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H115" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I115" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J115" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K115" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L115" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M115" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N115" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O115" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P115" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q115">
         <v>25</v>
@@ -9282,10 +9626,13 @@
       <c r="W115">
         <v>54</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X115">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B116">
         <v>37</v>
@@ -9294,43 +9641,43 @@
         <v>1440</v>
       </c>
       <c r="D116" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s">
         <v>27</v>
       </c>
-      <c r="F116" t="s">
-        <v>30</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
-      </c>
       <c r="H116" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I116" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K116" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L116" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M116" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O116" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P116" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R116">
         <v>651</v>
@@ -9350,10 +9697,13 @@
       <c r="W116">
         <v>477</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X116">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="B117">
         <v>60</v>
@@ -9362,43 +9712,43 @@
         <v>1380</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H117" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I117" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J117" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K117" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L117" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M117" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N117" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O117" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P117" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R117">
         <v>751</v>
@@ -9418,10 +9768,13 @@
       <c r="W117">
         <v>529</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X117">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -9430,43 +9783,43 @@
         <v>1530</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E118" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G118" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H118" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I118" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J118" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K118" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L118" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M118" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O118" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P118" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q118">
         <v>65</v>
@@ -9489,8 +9842,11 @@
       <c r="W118">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X118">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>153</v>
       </c>
@@ -9501,43 +9857,43 @@
         <v>1325</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G119" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H119" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I119" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J119" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K119" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L119" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O119" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P119" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R119">
         <v>252</v>
@@ -9552,16 +9908,16 @@
         <v>252</v>
       </c>
       <c r="V119" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="W119" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="X119" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W119">
-    <sortCondition ref="A1:A119"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aronf\Desktop\US-College-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BACB32-4B46-4F27-B0B7-08FD3D028FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7226F8F-442E-4259-85AD-71F1222DE911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2325" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="2325" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -91,6 +91,9 @@
     <t>2022 RUR World Reputation Ranking</t>
   </si>
   <si>
+    <t>2023 CSRankings</t>
+  </si>
+  <si>
     <t>American University</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>B+</t>
   </si>
   <si>
+    <t>No Ranking</t>
+  </si>
+  <si>
     <t>Auburn University</t>
   </si>
   <si>
@@ -127,9 +133,6 @@
     <t>C+</t>
   </si>
   <si>
-    <t>No Ranking</t>
-  </si>
-  <si>
     <t>Binghamton University</t>
   </si>
   <si>
@@ -482,15 +485,12 @@
   </si>
   <si>
     <t>Yeshiva University</t>
-  </si>
-  <si>
-    <t>2023 CSRankings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1324,17 +1324,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="23" max="23" width="32.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1407,12 +1402,12 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -1421,43 +1416,43 @@
         <v>1360</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R2">
         <v>651</v>
@@ -1478,12 +1473,12 @@
         <v>509</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>71</v>
@@ -1492,43 +1487,43 @@
         <v>1260</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3">
         <v>801</v>
@@ -1554,7 +1549,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>57</v>
@@ -1563,43 +1558,43 @@
         <v>1255</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R4">
         <v>1001</v>
@@ -1617,15 +1612,15 @@
         <v>601</v>
       </c>
       <c r="W4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>44</v>
@@ -1634,43 +1629,43 @@
         <v>1390</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R5">
         <v>801</v>
@@ -1696,7 +1691,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>19</v>
@@ -1705,43 +1700,43 @@
         <v>1475</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R6">
         <v>494</v>
@@ -1767,7 +1762,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -1776,43 +1771,43 @@
         <v>1440</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -1841,7 +1836,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>39</v>
@@ -1850,43 +1845,43 @@
         <v>1450</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -1915,7 +1910,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>59</v>
@@ -1924,43 +1919,43 @@
         <v>1330</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R9">
         <v>1001</v>
@@ -1975,10 +1970,10 @@
         <v>1001</v>
       </c>
       <c r="V9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X9">
         <v>101</v>
@@ -1986,7 +1981,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1995,43 +1990,43 @@
         <v>1515</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2060,7 +2055,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2069,43 +2064,43 @@
         <v>1555</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q11">
         <v>76</v>
@@ -2134,7 +2129,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>14</v>
@@ -2143,43 +2138,43 @@
         <v>1520</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q12">
         <v>20</v>
@@ -2208,7 +2203,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -2217,43 +2212,43 @@
         <v>1470</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q13">
         <v>18</v>
@@ -2282,7 +2277,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>86</v>
@@ -2291,43 +2286,43 @@
         <v>1255</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R14">
         <v>3000</v>
@@ -2342,18 +2337,18 @@
         <v>3000</v>
       </c>
       <c r="V14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>48</v>
@@ -2362,43 +2357,43 @@
         <v>1310</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R15">
         <v>751</v>
@@ -2416,15 +2411,15 @@
         <v>1001</v>
       </c>
       <c r="W15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>49</v>
@@ -2433,43 +2428,43 @@
         <v>1320</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R16">
         <v>801</v>
@@ -2487,7 +2482,7 @@
         <v>801</v>
       </c>
       <c r="W16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X16">
         <v>71</v>
@@ -2495,7 +2490,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>57</v>
@@ -2504,43 +2499,43 @@
         <v>1390</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R17">
         <v>461</v>
@@ -2566,7 +2561,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -2575,43 +2570,43 @@
         <v>1515</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q18">
         <v>96</v>
@@ -2640,7 +2635,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -2649,43 +2644,43 @@
         <v>1505</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q19">
         <v>61</v>
@@ -2714,7 +2709,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -2723,43 +2718,43 @@
         <v>1500</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R20">
         <v>191</v>
@@ -2785,7 +2780,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>83</v>
@@ -2794,43 +2789,43 @@
         <v>1310</v>
       </c>
       <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>27</v>
-      </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R21">
         <v>651</v>
@@ -2856,7 +2851,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2865,43 +2860,43 @@
         <v>1525</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q22">
         <v>15</v>
@@ -2922,7 +2917,7 @@
         <v>25</v>
       </c>
       <c r="W22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X22">
         <v>28</v>
@@ -2930,7 +2925,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -2939,43 +2934,43 @@
         <v>1480</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R23">
         <v>160</v>
@@ -3001,7 +2996,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>50</v>
@@ -3010,43 +3005,43 @@
         <v>1400</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R24">
         <v>355</v>
@@ -3072,7 +3067,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -3081,43 +3076,43 @@
         <v>1480</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R25">
         <v>248</v>
@@ -3143,7 +3138,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>18</v>
@@ -3152,43 +3147,43 @@
         <v>1450</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R26">
         <v>88</v>
@@ -3214,7 +3209,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -3223,43 +3218,43 @@
         <v>1530</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q27">
         <v>161</v>
@@ -3288,7 +3283,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>35</v>
@@ -3297,43 +3292,43 @@
         <v>1185</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R28">
         <v>651</v>
@@ -3351,15 +3346,15 @@
         <v>351</v>
       </c>
       <c r="W28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>85</v>
@@ -3368,43 +3363,43 @@
         <v>1270</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -3433,7 +3428,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -3442,43 +3437,43 @@
         <v>1540</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q30">
         <v>39</v>
@@ -3507,7 +3502,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>46</v>
@@ -3516,43 +3511,43 @@
         <v>1407</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R31">
         <v>531</v>
@@ -3578,7 +3573,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32">
         <v>77</v>
@@ -3587,43 +3582,43 @@
         <v>1260</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R32">
         <v>801</v>
@@ -3638,18 +3633,18 @@
         <v>801</v>
       </c>
       <c r="V32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>86</v>
@@ -3658,43 +3653,43 @@
         <v>1270</v>
       </c>
       <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" t="s">
         <v>29</v>
       </c>
-      <c r="E33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M33" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" t="s">
-        <v>28</v>
-      </c>
       <c r="O33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R33">
         <v>1001</v>
@@ -3715,12 +3710,12 @@
         <v>672</v>
       </c>
       <c r="X33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -3729,43 +3724,43 @@
         <v>1545</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q34">
         <v>97</v>
@@ -3794,7 +3789,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35">
         <v>89</v>
@@ -3803,43 +3798,43 @@
         <v>1265</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R35">
         <v>1001</v>
@@ -3854,18 +3849,18 @@
         <v>1001</v>
       </c>
       <c r="V35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W35">
         <v>513</v>
       </c>
       <c r="X35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36">
         <v>13</v>
@@ -3874,43 +3869,43 @@
         <v>1510</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q36">
         <v>38</v>
@@ -3939,7 +3934,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37">
         <v>47</v>
@@ -3948,43 +3943,43 @@
         <v>1355</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R37">
         <v>300</v>
@@ -4010,7 +4005,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38">
         <v>18</v>
@@ -4019,43 +4014,43 @@
         <v>1490</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R38">
         <v>342</v>
@@ -4081,7 +4076,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -4090,43 +4085,43 @@
         <v>1510</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q39">
         <v>22</v>
@@ -4155,7 +4150,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40">
         <v>57</v>
@@ -4164,43 +4159,43 @@
         <v>1345</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R40">
         <v>120</v>
@@ -4226,7 +4221,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41">
         <v>89</v>
@@ -4235,43 +4230,43 @@
         <v>1180</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R41">
         <v>1001</v>
@@ -4289,7 +4284,7 @@
         <v>801</v>
       </c>
       <c r="W41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X41">
         <v>144</v>
@@ -4297,7 +4292,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42">
         <v>79</v>
@@ -4306,43 +4301,43 @@
         <v>1250</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R42">
         <v>1001</v>
@@ -4357,18 +4352,18 @@
         <v>1001</v>
       </c>
       <c r="V42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43">
         <v>58</v>
@@ -4377,43 +4372,43 @@
         <v>1300</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R43">
         <v>96</v>
@@ -4439,7 +4434,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44">
         <v>53</v>
@@ -4448,43 +4443,43 @@
         <v>1350</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R44">
         <v>3000</v>
@@ -4499,18 +4494,18 @@
         <v>3000</v>
       </c>
       <c r="V44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -4519,43 +4514,43 @@
         <v>1515</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q45">
         <v>69</v>
@@ -4584,7 +4579,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46">
         <v>69</v>
@@ -4593,43 +4588,43 @@
         <v>1310</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -4658,7 +4653,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47">
         <v>53</v>
@@ -4667,43 +4662,43 @@
         <v>1440</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R47">
         <v>431</v>
@@ -4729,7 +4724,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48">
         <v>9</v>
@@ -4738,43 +4733,43 @@
         <v>1530</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R48">
         <v>94</v>
@@ -4800,7 +4795,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49">
         <v>71</v>
@@ -4809,43 +4804,43 @@
         <v>1360</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R49">
         <v>1001</v>
@@ -4863,7 +4858,7 @@
         <v>1001</v>
       </c>
       <c r="W49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X49">
         <v>59</v>
@@ -4871,7 +4866,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50">
         <v>68</v>
@@ -4880,43 +4875,43 @@
         <v>1355</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -4945,7 +4940,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51">
         <v>70</v>
@@ -4954,43 +4949,43 @@
         <v>1265</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R51">
         <v>3000</v>
@@ -5008,15 +5003,15 @@
         <v>301</v>
       </c>
       <c r="W51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52">
         <v>38</v>
@@ -5025,43 +5020,43 @@
         <v>1225</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R52">
         <v>1001</v>
@@ -5082,12 +5077,12 @@
         <v>451</v>
       </c>
       <c r="X52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -5096,43 +5091,43 @@
         <v>1425</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R53">
         <v>801</v>
@@ -5147,10 +5142,10 @@
         <v>801</v>
       </c>
       <c r="V53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X53">
         <v>173</v>
@@ -5158,7 +5153,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -5167,43 +5162,43 @@
         <v>1520</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q54">
         <v>84</v>
@@ -5232,7 +5227,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -5241,43 +5236,43 @@
         <v>1440</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
         <v>28</v>
       </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" t="s">
-        <v>27</v>
-      </c>
       <c r="J55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R55">
         <v>701</v>
@@ -5303,7 +5298,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56">
         <v>48</v>
@@ -5312,43 +5307,43 @@
         <v>1390</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
         <v>29</v>
       </c>
-      <c r="F56" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" t="s">
-        <v>28</v>
-      </c>
       <c r="K56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R56">
         <v>378</v>
@@ -5374,7 +5369,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57">
         <v>59</v>
@@ -5383,43 +5378,43 @@
         <v>1310</v>
       </c>
       <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
         <v>29</v>
       </c>
-      <c r="E57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R57">
         <v>651</v>
@@ -5445,7 +5440,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58">
         <v>64</v>
@@ -5454,43 +5449,43 @@
         <v>1260</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -5519,7 +5514,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59">
         <v>54</v>
@@ -5528,43 +5523,43 @@
         <v>1240</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R59">
         <v>3000</v>
@@ -5579,18 +5574,18 @@
         <v>3000</v>
       </c>
       <c r="V59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W59">
         <v>642</v>
       </c>
       <c r="X59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>11</v>
@@ -5599,43 +5594,43 @@
         <v>1495</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -5664,7 +5659,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -5673,43 +5668,43 @@
         <v>1435</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R61">
         <v>436</v>
@@ -5735,7 +5730,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -5744,43 +5739,43 @@
         <v>1405</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q62">
         <v>25</v>
@@ -5809,7 +5804,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63">
         <v>70</v>
@@ -5818,43 +5813,43 @@
         <v>1270</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R63">
         <v>388</v>
@@ -5880,7 +5875,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64">
         <v>79</v>
@@ -5889,43 +5884,43 @@
         <v>1220</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R64">
         <v>801</v>
@@ -5951,7 +5946,7 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B65">
         <v>87</v>
@@ -5960,43 +5955,43 @@
         <v>1245</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -6025,7 +6020,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>15</v>
@@ -6034,43 +6029,43 @@
         <v>1410</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q66">
         <v>110</v>
@@ -6099,7 +6094,7 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B67">
         <v>49</v>
@@ -6108,43 +6103,43 @@
         <v>1270</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R67">
         <v>138</v>
@@ -6170,7 +6165,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68">
         <v>29</v>
@@ -6179,43 +6174,43 @@
         <v>1332</v>
       </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K68" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -6244,7 +6239,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69">
         <v>66</v>
@@ -6253,43 +6248,43 @@
         <v>1175</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R69">
         <v>403</v>
@@ -6315,7 +6310,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B70">
         <v>34</v>
@@ -6324,43 +6319,43 @@
         <v>1370</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q70">
         <v>27</v>
@@ -6389,7 +6384,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71">
         <v>29</v>
@@ -6398,43 +6393,43 @@
         <v>1355</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q71">
         <v>14</v>
@@ -6463,7 +6458,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B72">
         <v>59</v>
@@ -6472,43 +6467,43 @@
         <v>1260</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R72">
         <v>347</v>
@@ -6534,7 +6529,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B73">
         <v>36</v>
@@ -6543,43 +6538,43 @@
         <v>1260</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R73">
         <v>751</v>
@@ -6605,7 +6600,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -6614,43 +6609,43 @@
         <v>1545</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q74">
         <v>100</v>
@@ -6679,7 +6674,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B75">
         <v>85</v>
@@ -6688,43 +6683,43 @@
         <v>1250</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R75">
         <v>601</v>
@@ -6739,10 +6734,10 @@
         <v>601</v>
       </c>
       <c r="V75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X75">
         <v>144</v>
@@ -6750,7 +6745,7 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B76">
         <v>80</v>
@@ -6759,43 +6754,43 @@
         <v>1280</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q76">
         <v>13</v>
@@ -6824,7 +6819,7 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77">
         <v>56</v>
@@ -6833,43 +6828,43 @@
         <v>1330</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R77">
         <v>373</v>
@@ -6895,7 +6890,7 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B78">
         <v>81</v>
@@ -6904,43 +6899,43 @@
         <v>1230</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R78">
         <v>3000</v>
@@ -6958,15 +6953,15 @@
         <v>801</v>
       </c>
       <c r="W78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79">
         <v>70</v>
@@ -6975,43 +6970,43 @@
         <v>1260</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R79">
         <v>531</v>
@@ -7037,7 +7032,7 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B80">
         <v>64</v>
@@ -7046,43 +7041,43 @@
         <v>1295</v>
       </c>
       <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
         <v>29</v>
       </c>
-      <c r="E80" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
       <c r="H80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R80">
         <v>751</v>
@@ -7100,7 +7095,7 @@
         <v>401</v>
       </c>
       <c r="W80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X80">
         <v>144</v>
@@ -7108,7 +7103,7 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81">
         <v>30</v>
@@ -7117,43 +7112,43 @@
         <v>1385</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R81">
         <v>173</v>
@@ -7179,7 +7174,7 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82">
         <v>60</v>
@@ -7188,43 +7183,43 @@
         <v>1430</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q82">
         <v>30</v>
@@ -7253,7 +7248,7 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83">
         <v>86</v>
@@ -7262,43 +7257,43 @@
         <v>1240</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R83">
         <v>455</v>
@@ -7324,7 +7319,7 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84">
         <v>92</v>
@@ -7333,43 +7328,43 @@
         <v>1210</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>387</v>
@@ -7395,7 +7390,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B85">
         <v>94</v>
@@ -7404,43 +7399,43 @@
         <v>1206</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R85">
         <v>651</v>
@@ -7458,7 +7453,7 @@
         <v>501</v>
       </c>
       <c r="W85" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X85">
         <v>113</v>
@@ -7466,7 +7461,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B86">
         <v>52</v>
@@ -7475,43 +7470,43 @@
         <v>1420</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q86">
         <v>9</v>
@@ -7540,7 +7535,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87">
         <v>66</v>
@@ -7549,43 +7544,43 @@
         <v>1355</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R87">
         <v>246</v>
@@ -7603,7 +7598,7 @@
         <v>191</v>
       </c>
       <c r="W87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X87">
         <v>18</v>
@@ -7611,7 +7606,7 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88">
         <v>28</v>
@@ -7620,43 +7615,43 @@
         <v>1380</v>
       </c>
       <c r="D88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -7685,7 +7680,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B89">
         <v>20</v>
@@ -7694,43 +7689,43 @@
         <v>1445</v>
       </c>
       <c r="D89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q89">
         <v>26</v>
@@ -7759,7 +7754,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B90">
         <v>73</v>
@@ -7768,43 +7763,43 @@
         <v>1400</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" t="s">
+        <v>34</v>
+      </c>
+      <c r="K90" t="s">
+        <v>25</v>
+      </c>
+      <c r="L90" t="s">
+        <v>34</v>
+      </c>
+      <c r="M90" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" t="s">
         <v>29</v>
       </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s">
-        <v>24</v>
-      </c>
-      <c r="I90" t="s">
-        <v>34</v>
-      </c>
-      <c r="J90" t="s">
-        <v>32</v>
-      </c>
-      <c r="K90" t="s">
-        <v>24</v>
-      </c>
-      <c r="L90" t="s">
-        <v>32</v>
-      </c>
-      <c r="M90" t="s">
-        <v>24</v>
-      </c>
-      <c r="N90" t="s">
-        <v>28</v>
-      </c>
       <c r="O90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R90">
         <v>186</v>
@@ -7830,7 +7825,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -7839,43 +7834,43 @@
         <v>1125</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R91">
         <v>801</v>
@@ -7890,18 +7885,18 @@
         <v>801</v>
       </c>
       <c r="V91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B92">
         <v>77</v>
@@ -7910,43 +7905,43 @@
         <v>1240</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R92">
         <v>476</v>
@@ -7972,7 +7967,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B93">
         <v>81</v>
@@ -7981,43 +7976,43 @@
         <v>1205</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R93">
         <v>571</v>
@@ -8043,7 +8038,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B94">
         <v>87</v>
@@ -8052,43 +8047,43 @@
         <v>1205</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R94">
         <v>801</v>
@@ -8103,10 +8098,10 @@
         <v>801</v>
       </c>
       <c r="V94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X94">
         <v>101</v>
@@ -8114,7 +8109,7 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B95">
         <v>19</v>
@@ -8123,43 +8118,43 @@
         <v>1415</v>
       </c>
       <c r="D95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -8188,7 +8183,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B96">
         <v>15</v>
@@ -8197,43 +8192,43 @@
         <v>1480</v>
       </c>
       <c r="D96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
+        <v>30</v>
+      </c>
+      <c r="I96" t="s">
+        <v>30</v>
+      </c>
+      <c r="J96" t="s">
         <v>29</v>
       </c>
-      <c r="I96" t="s">
-        <v>29</v>
-      </c>
-      <c r="J96" t="s">
-        <v>28</v>
-      </c>
       <c r="K96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R96">
         <v>222</v>
@@ -8259,7 +8254,7 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B97">
         <v>85</v>
@@ -8268,43 +8263,43 @@
         <v>1245</v>
       </c>
       <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" t="s">
         <v>29</v>
       </c>
-      <c r="E97" t="s">
+      <c r="J97" t="s">
         <v>32</v>
       </c>
-      <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
-      <c r="H97" t="s">
-        <v>24</v>
-      </c>
-      <c r="I97" t="s">
-        <v>28</v>
-      </c>
-      <c r="J97" t="s">
-        <v>35</v>
-      </c>
       <c r="K97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R97">
         <v>651</v>
@@ -8319,7 +8314,7 @@
         <v>651</v>
       </c>
       <c r="V97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W97">
         <v>356</v>
@@ -8330,7 +8325,7 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B98">
         <v>93</v>
@@ -8339,43 +8334,43 @@
         <v>1220</v>
       </c>
       <c r="D98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N98" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R98">
         <v>651</v>
@@ -8390,7 +8385,7 @@
         <v>651</v>
       </c>
       <c r="V98" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W98">
         <v>275</v>
@@ -8401,7 +8396,7 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -8410,43 +8405,43 @@
         <v>1525</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q99">
         <v>36</v>
@@ -8475,7 +8470,7 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B100">
         <v>67</v>
@@ -8484,43 +8479,43 @@
         <v>1360</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R100">
         <v>163</v>
@@ -8546,7 +8541,7 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B101">
         <v>41</v>
@@ -8555,43 +8550,43 @@
         <v>1445</v>
       </c>
       <c r="D101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q101">
         <v>13</v>
@@ -8620,7 +8615,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B102">
         <v>62</v>
@@ -8629,43 +8624,43 @@
         <v>1255</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L102" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N102" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O102" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R102">
         <v>601</v>
@@ -8680,7 +8675,7 @@
         <v>601</v>
       </c>
       <c r="V102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W102">
         <v>355</v>
@@ -8691,7 +8686,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B103">
         <v>13</v>
@@ -8700,43 +8695,43 @@
         <v>1475</v>
       </c>
       <c r="D103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -8765,7 +8760,7 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B104">
         <v>49</v>
@@ -8774,43 +8769,43 @@
         <v>1240</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R104">
         <v>581</v>
@@ -8836,7 +8831,7 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B105">
         <v>75</v>
@@ -8845,43 +8840,43 @@
         <v>1255</v>
       </c>
       <c r="D105" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105" t="s">
         <v>29</v>
       </c>
-      <c r="E105" t="s">
-        <v>32</v>
-      </c>
-      <c r="F105" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
-      <c r="H105" t="s">
-        <v>30</v>
-      </c>
-      <c r="I105" t="s">
-        <v>28</v>
-      </c>
       <c r="J105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R105">
         <v>541</v>
@@ -8907,7 +8902,7 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B106">
         <v>29</v>
@@ -8916,43 +8911,43 @@
         <v>1365</v>
       </c>
       <c r="D106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q106">
         <v>13</v>
@@ -8973,7 +8968,7 @@
         <v>50</v>
       </c>
       <c r="W106" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X106">
         <v>16</v>
@@ -8981,7 +8976,7 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B107">
         <v>87</v>
@@ -8990,43 +8985,43 @@
         <v>1295</v>
       </c>
       <c r="D107" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" t="s">
         <v>29</v>
       </c>
-      <c r="E107" t="s">
-        <v>28</v>
-      </c>
       <c r="F107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K107" t="s">
+        <v>30</v>
+      </c>
+      <c r="L107" t="s">
         <v>29</v>
       </c>
-      <c r="L107" t="s">
-        <v>28</v>
-      </c>
       <c r="M107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R107">
         <v>477</v>
@@ -9052,7 +9047,7 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B108">
         <v>75</v>
@@ -9061,43 +9056,43 @@
         <v>1220</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R108">
         <v>801</v>
@@ -9115,7 +9110,7 @@
         <v>401</v>
       </c>
       <c r="W108" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X108">
         <v>173</v>
@@ -9123,7 +9118,7 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B109">
         <v>64</v>
@@ -9132,43 +9127,43 @@
         <v>1325</v>
       </c>
       <c r="D109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R109">
         <v>651</v>
@@ -9183,7 +9178,7 @@
         <v>651</v>
       </c>
       <c r="V109" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W109">
         <v>539</v>
@@ -9194,7 +9189,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B110">
         <v>21</v>
@@ -9203,43 +9198,43 @@
         <v>1460</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N110" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q110">
         <v>9</v>
@@ -9260,7 +9255,7 @@
         <v>156</v>
       </c>
       <c r="W110" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X110">
         <v>45</v>
@@ -9268,7 +9263,7 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B111">
         <v>60</v>
@@ -9277,43 +9272,43 @@
         <v>1425</v>
       </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q111">
         <v>26</v>
@@ -9342,7 +9337,7 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -9351,43 +9346,43 @@
         <v>1525</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N112" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -9416,7 +9411,7 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B113">
         <v>25</v>
@@ -9425,43 +9420,43 @@
         <v>1420</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R113">
         <v>3000</v>
@@ -9476,18 +9471,18 @@
         <v>3000</v>
       </c>
       <c r="V113" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W113" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X113" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B114">
         <v>25</v>
@@ -9496,43 +9491,43 @@
         <v>1425</v>
       </c>
       <c r="D114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R114">
         <v>429</v>
@@ -9553,12 +9548,12 @@
         <v>400</v>
       </c>
       <c r="X114" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B115">
         <v>13</v>
@@ -9567,43 +9562,43 @@
         <v>1530</v>
       </c>
       <c r="D115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J115" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q115">
         <v>25</v>
@@ -9632,7 +9627,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B116">
         <v>37</v>
@@ -9641,43 +9636,43 @@
         <v>1440</v>
       </c>
       <c r="D116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H116" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L116" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M116" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R116">
         <v>651</v>
@@ -9703,7 +9698,7 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B117">
         <v>60</v>
@@ -9712,43 +9707,43 @@
         <v>1380</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117" t="s">
         <v>28</v>
       </c>
-      <c r="G117" t="s">
-        <v>27</v>
-      </c>
       <c r="H117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R117">
         <v>751</v>
@@ -9774,7 +9769,7 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -9783,43 +9778,43 @@
         <v>1530</v>
       </c>
       <c r="D118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N118" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q118">
         <v>65</v>
@@ -9848,7 +9843,7 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B119">
         <v>62</v>
@@ -9857,43 +9852,43 @@
         <v>1325</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L119" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M119" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N119" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P119" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R119">
         <v>252</v>
@@ -9908,13 +9903,13 @@
         <v>252</v>
       </c>
       <c r="V119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
